--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F25E0-88A9-4E10-8516-4459C484806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EDA15E-0E4A-4054-9DB8-1409EC149103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="166">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Required to graduate</t>
+  </si>
+  <si>
+    <t>what do you think??</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -825,12 +828,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -840,6 +837,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -847,139 +847,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="253">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="00000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0000000"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1811,6 +1678,75 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1839,14 +1775,43 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="0000000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="00000000"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="00000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1872,34 +1837,69 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1978,140 +1978,140 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}" name="Table616" displayName="Table616" ref="B37:F43" totalsRowShown="0" dataDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}" name="Table616" displayName="Table616" ref="B37:F43" totalsRowShown="0" dataDxfId="139">
   <autoFilter ref="B37:F43" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4F82C258-BC76-45EB-AB03-0254FCD1BA9C}" name="S. No" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{1931576C-90BA-4965-A648-CB87B1A01E8B}" name="Course Name" dataDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{08710819-4BB9-4191-AE7E-B6B02498EA38}" name="Midterm" dataDxfId="178"/>
-    <tableColumn id="7" xr3:uid="{8B347F23-C206-4753-B777-B4A4BE2F85A1}" name="Pre-Final" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{CF91586C-C31D-4CEC-AFD8-249AEAC0B6B5}" name="Final" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{4F82C258-BC76-45EB-AB03-0254FCD1BA9C}" name="S. No" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{1931576C-90BA-4965-A648-CB87B1A01E8B}" name="Course Name" dataDxfId="137"/>
+    <tableColumn id="6" xr3:uid="{08710819-4BB9-4191-AE7E-B6B02498EA38}" name="Midterm" dataDxfId="136"/>
+    <tableColumn id="7" xr3:uid="{8B347F23-C206-4753-B777-B4A4BE2F85A1}" name="Pre-Final" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{CF91586C-C31D-4CEC-AFD8-249AEAC0B6B5}" name="Final" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}" name="Table61624" displayName="Table61624" ref="B47:H53" totalsRowShown="0" dataDxfId="175">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}" name="Table61624" displayName="Table61624" ref="B47:H53" totalsRowShown="0" dataDxfId="133">
   <autoFilter ref="B47:H53" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0565AE4-0C5A-4BA4-81C1-C3BF63F38597}" name="S. No" dataDxfId="174"/>
-    <tableColumn id="2" xr3:uid="{70A028AD-DF2A-4E5E-9621-DA8238901B60}" name="Course Name" dataDxfId="173"/>
-    <tableColumn id="4" xr3:uid="{F4AC14A7-22C6-4923-9435-8AD07D827C2E}" name="Midterm" dataDxfId="172"/>
-    <tableColumn id="6" xr3:uid="{39F5F465-4349-4266-9CE6-EAD28560B5D5}" name="Midterm Max" dataDxfId="171"/>
-    <tableColumn id="5" xr3:uid="{0372BF70-7A21-4D25-B7A9-143A246B4128}" name="Pre-Final" dataDxfId="170">
+    <tableColumn id="1" xr3:uid="{F0565AE4-0C5A-4BA4-81C1-C3BF63F38597}" name="S. No" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{70A028AD-DF2A-4E5E-9621-DA8238901B60}" name="Course Name" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{F4AC14A7-22C6-4923-9435-8AD07D827C2E}" name="Midterm" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{39F5F465-4349-4266-9CE6-EAD28560B5D5}" name="Midterm Max" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{0372BF70-7A21-4D25-B7A9-143A246B4128}" name="Pre-Final" dataDxfId="128">
       <calculatedColumnFormula array="1">Table61624[[#This Row],[Midterm]]+Table1012172213[Total]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{6A531446-7626-4D12-95D3-566FCDECDE06}" name="Pre-Final Max" dataDxfId="169"/>
-    <tableColumn id="3" xr3:uid="{7023FDA4-15BC-44F7-9AAE-FFA2941DBFEA}" name="Final" dataDxfId="168"/>
+    <tableColumn id="7" xr3:uid="{6A531446-7626-4D12-95D3-566FCDECDE06}" name="Pre-Final Max" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{7023FDA4-15BC-44F7-9AAE-FFA2941DBFEA}" name="Final" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}" name="Table6162430" displayName="Table6162430" ref="B57:H64" totalsRowShown="0" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}" name="Table6162430" displayName="Table6162430" ref="B57:H64" totalsRowShown="0" dataDxfId="125">
   <autoFilter ref="B57:H64" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{874C6CE1-BE37-4065-8A5B-CECA185231DD}" name="S. No" dataDxfId="166"/>
-    <tableColumn id="2" xr3:uid="{1A6EF9CF-36EA-4225-8EDC-59E8261EE8ED}" name="Course Name" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{8DCECEC6-AF29-4448-A504-394C4F78710B}" name="Midterm" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{A777B523-E7AD-4B84-A6C4-E17D9A3BFEC2}" name="Midterm Max" dataDxfId="163"/>
-    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="161"/>
-    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="160"/>
+    <tableColumn id="1" xr3:uid="{874C6CE1-BE37-4065-8A5B-CECA185231DD}" name="S. No" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{1A6EF9CF-36EA-4225-8EDC-59E8261EE8ED}" name="Course Name" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{8DCECEC6-AF29-4448-A504-394C4F78710B}" name="Midterm" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{A777B523-E7AD-4B84-A6C4-E17D9A3BFEC2}" name="Midterm Max" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="159" dataDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B5:I6" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D1D035A0-8468-4A7F-BBC8-CFCD96813B23}" name="Multimedia Systems" dataDxfId="157"/>
-    <tableColumn id="2" xr3:uid="{F67BEE79-F853-45BF-ACC7-46967A79CC91}" name="Tasks" dataDxfId="156"/>
-    <tableColumn id="3" xr3:uid="{C5E6CA24-CF22-43DE-85B3-B617638899F8}" name="Project 1" dataDxfId="155"/>
-    <tableColumn id="4" xr3:uid="{CE096E8B-0AE9-44EE-B92F-A2252BD19F8C}" name="Bonus" dataDxfId="154"/>
-    <tableColumn id="7" xr3:uid="{31FCDAB2-1D09-4A11-9E1A-B2CD4AF7F500}" name="Attendance" dataDxfId="153"/>
-    <tableColumn id="8" xr3:uid="{94F7195F-14BE-405B-A2B6-09558AF95CE3}" name="Project 2" dataDxfId="152"/>
-    <tableColumn id="5" xr3:uid="{52A7195C-5714-4061-AC64-56C2AAB3A983}" name="Projects" dataDxfId="151"/>
-    <tableColumn id="6" xr3:uid="{F81B11B2-B747-4E38-8D17-165EDC9C5B68}" name="Total2" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{D1D035A0-8468-4A7F-BBC8-CFCD96813B23}" name="Multimedia Systems" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{F67BEE79-F853-45BF-ACC7-46967A79CC91}" name="Tasks" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{C5E6CA24-CF22-43DE-85B3-B617638899F8}" name="Project 1" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{CE096E8B-0AE9-44EE-B92F-A2252BD19F8C}" name="Bonus" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{31FCDAB2-1D09-4A11-9E1A-B2CD4AF7F500}" name="Attendance" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{94F7195F-14BE-405B-A2B6-09558AF95CE3}" name="Project 2" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{52A7195C-5714-4061-AC64-56C2AAB3A983}" name="Projects" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{F81B11B2-B747-4E38-8D17-165EDC9C5B68}" name="Total2" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B9:F10" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{700B3547-6D3B-4765-A5E4-AC07353FFE64}" name="Software Engineering Theory" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{C9951BA9-3C1D-49EF-830C-D48C1BEEC830}" name="Presentation&amp;Assignments" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{E647E6EE-A073-4519-87D8-02044BBC6F98}" name="Project" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{F2D93F54-8EAD-4ED9-87AE-E37C13C3187F}" name="Bonus" dataDxfId="144"/>
-    <tableColumn id="5" xr3:uid="{2C44B120-1098-4D7D-BF6F-BF2542B03382}" name="Total" dataDxfId="143"/>
+    <tableColumn id="1" xr3:uid="{700B3547-6D3B-4765-A5E4-AC07353FFE64}" name="Software Engineering Theory" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C9951BA9-3C1D-49EF-830C-D48C1BEEC830}" name="Presentation&amp;Assignments" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{E647E6EE-A073-4519-87D8-02044BBC6F98}" name="Project" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{F2D93F54-8EAD-4ED9-87AE-E37C13C3187F}" name="Bonus" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{2C44B120-1098-4D7D-BF6F-BF2542B03382}" name="Total" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="B13:C14" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB6AF181-FD31-4972-85B7-B738A5302BA5}" name="Maths III" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{2776461E-0EFC-42E5-83DD-8C7E8528663B}" name="Quizes" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{FB6AF181-FD31-4972-85B7-B738A5302BA5}" name="Maths III" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{2776461E-0EFC-42E5-83DD-8C7E8528663B}" name="Quizes" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="138" dataDxfId="137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="B17:C18" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{33428839-BE00-405F-9EFD-BBE0568E2A50}" name="Game Programming" dataDxfId="136"/>
-    <tableColumn id="2" xr3:uid="{3EF9BDEC-F6DE-419C-82EF-18636B80F540}" name="Project" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{33428839-BE00-405F-9EFD-BBE0568E2A50}" name="Game Programming" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{3EF9BDEC-F6DE-419C-82EF-18636B80F540}" name="Project" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B21:F22" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D13213E2-B9FE-49ED-A2E5-13C00C70344C}" name="Data Structures" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{643FCD96-8371-4D07-98EB-5BE319409B38}" name="Quizes" dataDxfId="131"/>
-    <tableColumn id="3" xr3:uid="{4D3F7FF1-2E45-4C42-8083-75A4C9E67D00}" name="Attendance" dataDxfId="130"/>
-    <tableColumn id="4" xr3:uid="{0B5A6AB0-906B-4082-8488-F9B2849D3D26}" name="Assignments" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{CFB73E2E-4C15-455B-9767-60198BF30E91}" name="Report" dataDxfId="128"/>
+    <tableColumn id="1" xr3:uid="{D13213E2-B9FE-49ED-A2E5-13C00C70344C}" name="Data Structures" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{643FCD96-8371-4D07-98EB-5BE319409B38}" name="Quizes" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{4D3F7FF1-2E45-4C42-8083-75A4C9E67D00}" name="Attendance" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{0B5A6AB0-906B-4082-8488-F9B2849D3D26}" name="Assignments" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{CFB73E2E-4C15-455B-9767-60198BF30E91}" name="Report" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="B29:E30" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8D9EF0C0-1B3E-4863-8BAF-044C59C9A388}" name="Web Programming" dataDxfId="125"/>
-    <tableColumn id="2" xr3:uid="{AE418BE6-92BC-432F-9F67-196A7F9940EF}" name="Project" dataDxfId="124"/>
-    <tableColumn id="3" xr3:uid="{D4EC974C-3393-48D5-B53E-585F3D0D1997}" name="Sections" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{E33770EB-3DDD-4D63-94FA-A598B90F5B67}" name="Bonus" dataDxfId="122"/>
+    <tableColumn id="1" xr3:uid="{8D9EF0C0-1B3E-4863-8BAF-044C59C9A388}" name="Web Programming" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{AE418BE6-92BC-432F-9F67-196A7F9940EF}" name="Project" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{D4EC974C-3393-48D5-B53E-585F3D0D1997}" name="Sections" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{E33770EB-3DDD-4D63-94FA-A598B90F5B67}" name="Bonus" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="B33:D34" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B12A5AD3-F7F5-4108-BCE4-51518FCFC4E4}" name="Database" dataDxfId="119"/>
-    <tableColumn id="2" xr3:uid="{8DFA2315-436C-47E5-BC83-BF1E161BAC8D}" name="ERD &amp; Business Rules" dataDxfId="118"/>
-    <tableColumn id="3" xr3:uid="{0B716030-3726-45F6-9CBF-54A88D8F5F46}" name="SQL" dataDxfId="117"/>
+    <tableColumn id="1" xr3:uid="{B12A5AD3-F7F5-4108-BCE4-51518FCFC4E4}" name="Database" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{8DFA2315-436C-47E5-BC83-BF1E161BAC8D}" name="ERD &amp; Business Rules" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{0B716030-3726-45F6-9CBF-54A88D8F5F46}" name="SQL" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2121,176 +2121,176 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCE949A3-1104-4EE3-8974-CAF899620CD7}" name="Table13" displayName="Table13" ref="B15:H23" totalsRowCount="1" headerRowDxfId="243" dataDxfId="242" totalsRowDxfId="241">
   <autoFilter ref="B15:H22" xr:uid="{DCE949A3-1104-4EE3-8974-CAF899620CD7}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{1863A1F8-44C1-4DCA-BD68-EBFB7384951C}" name="C. No" dataDxfId="240" totalsRowDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{5D3BC791-397A-48D3-BFA5-BBBC1A2A7907}" name="Course Name" dataDxfId="239" totalsRowDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{453A42BC-A072-42B3-8A09-4E6B76DEDCED}" name="Pre-Requisite" dataDxfId="238" totalsRowDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{1700FAE5-8654-46A4-A039-AFBE529992BE}" name="Course Code" dataDxfId="237" totalsRowDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{172877EC-7A8C-4D10-8BC7-342C3D021671}" name="Credit Hours" dataDxfId="236" totalsRowDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{7E6011B4-7A10-4A16-9E75-C91E0A9DED0C}" name="Credit Hour Price" dataDxfId="235" totalsRowDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{920FA2B5-9D44-44C3-BEDA-BA8CE63644C3}" name="Course Price" totalsRowFunction="sum" dataDxfId="234" totalsRowDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{1863A1F8-44C1-4DCA-BD68-EBFB7384951C}" name="C. No" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="9" xr3:uid="{5D3BC791-397A-48D3-BFA5-BBBC1A2A7907}" name="Course Name" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="15" xr3:uid="{453A42BC-A072-42B3-8A09-4E6B76DEDCED}" name="Pre-Requisite" dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="10" xr3:uid="{1700FAE5-8654-46A4-A039-AFBE529992BE}" name="Course Code" dataDxfId="234" totalsRowDxfId="233"/>
+    <tableColumn id="11" xr3:uid="{172877EC-7A8C-4D10-8BC7-342C3D021671}" name="Credit Hours" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="12" xr3:uid="{7E6011B4-7A10-4A16-9E75-C91E0A9DED0C}" name="Credit Hour Price" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="13" xr3:uid="{920FA2B5-9D44-44C3-BEDA-BA8CE63644C3}" name="Course Price" totalsRowFunction="sum" dataDxfId="228" totalsRowDxfId="227"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="B37:G38" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A927A777-891A-459A-B181-D3F12121968A}" name="HCI" dataDxfId="114"/>
-    <tableColumn id="2" xr3:uid="{79EAEA15-A950-4644-BAC9-5F313DE31336}" name="Persona &amp; Comp. Research" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{38B85951-D9A2-40C7-A404-E6D3FAC57915}" name="User Flow &amp; Sketching" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{9A317C4B-A29C-447E-81E3-B9999A6E82CB}" name="Wireframe" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{7F815F66-3A06-49CE-B7D6-F50614693D29}" name="Protoype" dataDxfId="110"/>
-    <tableColumn id="6" xr3:uid="{FCD0A372-08B9-4F5C-A6F6-69F4B9E5B973}" name="Mouse Cursor Project" dataDxfId="109"/>
+    <tableColumn id="1" xr3:uid="{A927A777-891A-459A-B181-D3F12121968A}" name="HCI" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{79EAEA15-A950-4644-BAC9-5F313DE31336}" name="Persona &amp; Comp. Research" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{38B85951-D9A2-40C7-A404-E6D3FAC57915}" name="User Flow &amp; Sketching" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{9A317C4B-A29C-447E-81E3-B9999A6E82CB}" name="Wireframe" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{7F815F66-3A06-49CE-B7D6-F50614693D29}" name="Protoype" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{FCD0A372-08B9-4F5C-A6F6-69F4B9E5B973}" name="Mouse Cursor Project" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B41:E42" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035A81E6-D0E9-4514-856A-4268F8CC9DA6}" name="SWRA" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{12D2C635-A485-47AD-8190-8C54FBF9000C}" name="Project" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{45F2C637-AC09-44A5-92E8-6BADCFC9B3F1}" name="Tasks" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{8FA9D5CD-8C7B-4804-B737-1E714122E0BB}" name="Bonus" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{035A81E6-D0E9-4514-856A-4268F8CC9DA6}" name="SWRA" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{12D2C635-A485-47AD-8190-8C54FBF9000C}" name="Project" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{45F2C637-AC09-44A5-92E8-6BADCFC9B3F1}" name="Tasks" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{8FA9D5CD-8C7B-4804-B737-1E714122E0BB}" name="Bonus" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B45:G46" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42FC35EA-B43D-48B3-B3A3-595F88F92450}" name="Data Mining" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{9FEB74EB-AC46-401B-BB9E-8C8A45D5AF88}" name="Quiz" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{8B9598E1-5543-4747-9C5F-C4096AAF4F60}" name="Assignment 1" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{891DC4A3-A6EA-4A59-BA25-7BA469C2BB0A}" name="Assignment 2" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{758071D9-C1B0-45BD-B6BF-33C3918898F3}" name="Quiz 2" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{343E6371-5E31-41BB-B2F7-397D9E50F2F8}" name="Total" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{42FC35EA-B43D-48B3-B3A3-595F88F92450}" name="Data Mining" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{9FEB74EB-AC46-401B-BB9E-8C8A45D5AF88}" name="Quiz" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{8B9598E1-5543-4747-9C5F-C4096AAF4F60}" name="Assignment 1" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{891DC4A3-A6EA-4A59-BA25-7BA469C2BB0A}" name="Assignment 2" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{758071D9-C1B0-45BD-B6BF-33C3918898F3}" name="Quiz 2" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{343E6371-5E31-41BB-B2F7-397D9E50F2F8}" name="Total" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="B49:C50" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62817289-D4F9-4533-A45B-83BD78F1E21D}" name="Maths IV" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{85694941-D6AA-4481-BDF5-36CF8B4AE004}" name="Quiz" dataDxfId="91"/>
+    <tableColumn id="1" xr3:uid="{62817289-D4F9-4533-A45B-83BD78F1E21D}" name="Maths IV" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{85694941-D6AA-4481-BDF5-36CF8B4AE004}" name="Quiz" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B57:H58" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B39D5E1C-69EB-4152-B8A8-1760D2448A90}" name="Linear Algebra" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{D10D149E-232F-4DAA-81C5-31D861839F41}" name="Quiz1" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{5CA6916F-5FA5-47DB-A9BD-91A639B91014}" name="Quiz1 Max" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{A3325A9B-02FB-4C53-B892-28DB2A463736}" name="Quiz2" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{44A6C65B-FA82-49DB-A3BB-780E2DED5ECE}" name="Quiz22" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{E6C766A9-E04E-4ADB-84CB-0183A38391BF}" name="Total" dataDxfId="83">
+    <tableColumn id="1" xr3:uid="{B39D5E1C-69EB-4152-B8A8-1760D2448A90}" name="Linear Algebra" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{D10D149E-232F-4DAA-81C5-31D861839F41}" name="Quiz1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{5CA6916F-5FA5-47DB-A9BD-91A639B91014}" name="Quiz1 Max" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{A3325A9B-02FB-4C53-B892-28DB2A463736}" name="Quiz2" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{44A6C65B-FA82-49DB-A3BB-780E2DED5ECE}" name="Quiz22" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E6C766A9-E04E-4ADB-84CB-0183A38391BF}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>+Table1012172213[[#This Row],[Quiz1]]+Table1012172213[[#This Row],[Quiz2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89E4E1E6-96CC-4FF6-B9D1-52ECF82969B0}" name="Total Max" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{89E4E1E6-96CC-4FF6-B9D1-52ECF82969B0}" name="Total Max" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B61:I62" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A1410ADB-FBAA-48A1-A8DF-3A8B2E651D8B}" name="Opearting Systems" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{8776271C-5F25-4785-A95B-B458AEF6F282}" name="Quiz1" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{05E6A514-432C-455E-9251-B2B593D26098}" name="Quiz1 Max" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{36387145-7C98-4055-ABC2-E7AC4D91D251}" name="Quiz 2" dataDxfId="76"/>
-    <tableColumn id="8" xr3:uid="{F134A27C-6A58-4C39-A569-9F69227340DC}" name="Quiz2 Max" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{2E7E518B-2E59-4E43-8726-08526026E34B}" name="Report" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{6157D7A2-D60B-4F03-A097-7482D25F89D6}" name="Total" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{7547E26B-F008-458B-9456-6DEE8B7DB78B}" name="Total Max" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{A1410ADB-FBAA-48A1-A8DF-3A8B2E651D8B}" name="Opearting Systems" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{8776271C-5F25-4785-A95B-B458AEF6F282}" name="Quiz1" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{05E6A514-432C-455E-9251-B2B593D26098}" name="Quiz1 Max" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{36387145-7C98-4055-ABC2-E7AC4D91D251}" name="Quiz 2" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{F134A27C-6A58-4C39-A569-9F69227340DC}" name="Quiz2 Max" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{2E7E518B-2E59-4E43-8726-08526026E34B}" name="Report" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{6157D7A2-D60B-4F03-A097-7482D25F89D6}" name="Total" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{7547E26B-F008-458B-9456-6DEE8B7DB78B}" name="Total Max" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B65:G66" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{186B9208-1B02-463B-927F-54C5F3F8ECA3}" name="Design and Analysis of Algorithms" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{5AF780C1-C46C-4238-A76A-BBE35D0DD3CE}" name="Quiz 1" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{C8A6FE4A-0A69-4C2A-A833-697D0B90F623}" name="Project" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{780FF1E4-AD54-4288-822A-14F698E383A9}" name="Total" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{B539CB65-6FBB-48BA-BF1A-D9899FE91DF1}" name="Total Max" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{7C2146AE-0FA2-490E-A979-F82977B2A392}" name="Bonus" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{186B9208-1B02-463B-927F-54C5F3F8ECA3}" name="Design and Analysis of Algorithms" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5AF780C1-C46C-4238-A76A-BBE35D0DD3CE}" name="Quiz 1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C8A6FE4A-0A69-4C2A-A833-697D0B90F623}" name="Project" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{780FF1E4-AD54-4288-822A-14F698E383A9}" name="Total" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{B539CB65-6FBB-48BA-BF1A-D9899FE91DF1}" name="Total Max" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7C2146AE-0FA2-490E-A979-F82977B2A392}" name="Bonus" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B69:F70" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{75F94FF8-2D45-4A55-99D4-4ED627023AFA}" name="Advanced Methods for Multimedia" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{88705062-D7C8-46E8-AA95-DAA631863958}" name="Sec Projects" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{F9618B6F-2F74-440B-9CF9-C226705955DC}" name="Sec Projects Max" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{4A66F216-977C-4163-B8CE-EDD7CBF7203B}" name="Lec Projects" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{DFE53239-C42B-4445-B658-06DB1051C764}" name="Lec Projects Max" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{75F94FF8-2D45-4A55-99D4-4ED627023AFA}" name="Advanced Methods for Multimedia" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{88705062-D7C8-46E8-AA95-DAA631863958}" name="Sec Projects" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F9618B6F-2F74-440B-9CF9-C226705955DC}" name="Sec Projects Max" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4A66F216-977C-4163-B8CE-EDD7CBF7203B}" name="Lec Projects" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{DFE53239-C42B-4445-B658-06DB1051C764}" name="Lec Projects Max" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B73:F74" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A5601E5C-E375-40C5-97A4-E21B705AA075}" name="Intelligent Systems" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{2240AD9C-38F6-47C4-8BD5-EAEE10C04068}" name="Assignment" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{A14BA645-2253-4B09-B74C-057576947793}" name="Project" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{BDAE3480-C7EC-4F7C-878D-4C50E6262734}" name="Total" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{6C410047-0482-4545-9881-9931EE4C7F26}" name="Total Max" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{A5601E5C-E375-40C5-97A4-E21B705AA075}" name="Intelligent Systems" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2240AD9C-38F6-47C4-8BD5-EAEE10C04068}" name="Assignment" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A14BA645-2253-4B09-B74C-057576947793}" name="Project" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BDAE3480-C7EC-4F7C-878D-4C50E6262734}" name="Total" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{6C410047-0482-4545-9881-9931EE4C7F26}" name="Total Max" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B77:G78" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD37413B-4A28-483D-9B6C-CA2468F72F8B}" name="Large-Scale Database" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{8ACAF496-83AE-4577-8105-E7F2D418F493}" name="Project 1" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{0AFE68A8-52C8-4747-BB8A-3B1C38E2BD7D}" name="Project 2" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{1BD72070-2E8A-4BBA-A175-C20D83CE3B45}" name="Assignment" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{EE08EFA1-C67A-468D-8D2C-6693EA6A1EED}" name="Total" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{2726B104-3C2D-4D50-852A-49C52478DDCE}" name="Total Max" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{BD37413B-4A28-483D-9B6C-CA2468F72F8B}" name="Large-Scale Database" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8ACAF496-83AE-4577-8105-E7F2D418F493}" name="Project 1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0AFE68A8-52C8-4747-BB8A-3B1C38E2BD7D}" name="Project 2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1BD72070-2E8A-4BBA-A175-C20D83CE3B45}" name="Assignment" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EE08EFA1-C67A-468D-8D2C-6693EA6A1EED}" name="Total" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2726B104-3C2D-4D50-852A-49C52478DDCE}" name="Total Max" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}" name="Table136" displayName="Table136" ref="B26:H34" totalsRowCount="1" headerRowDxfId="233" dataDxfId="232" totalsRowDxfId="231">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}" name="Table136" displayName="Table136" ref="B26:H34" totalsRowCount="1" headerRowDxfId="226" dataDxfId="225" totalsRowDxfId="224">
   <autoFilter ref="B26:H33" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{80F5D784-25D0-41BF-B665-68DCCFC51EFF}" name="C. No" dataDxfId="230" totalsRowDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{2B5580DF-E177-43F7-9479-7A8138AF1CE6}" name="Course Name" dataDxfId="229" totalsRowDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{8ACB0870-3619-477D-A7D2-AA574B94DBD4}" name="Pre-Requisite" dataDxfId="228" totalsRowDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{659372D5-C9CC-41E8-9569-93511561BC00}" name="Course Code" dataDxfId="227" totalsRowDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{D56AECAB-5A16-435D-81B5-609A7D36AEBE}" name="Credit Hours" dataDxfId="226" totalsRowDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{A1C5E82C-5836-4124-92EB-9BAFA5AF7757}" name="Credit Hour Price" dataDxfId="225" totalsRowDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{5CF1FF64-9BF4-434F-8529-F1D78945F6AA}" name="Course Price" totalsRowFunction="sum" dataDxfId="224" totalsRowDxfId="21">
+    <tableColumn id="8" xr3:uid="{80F5D784-25D0-41BF-B665-68DCCFC51EFF}" name="C. No" dataDxfId="223" totalsRowDxfId="222"/>
+    <tableColumn id="9" xr3:uid="{2B5580DF-E177-43F7-9479-7A8138AF1CE6}" name="Course Name" dataDxfId="221" totalsRowDxfId="220"/>
+    <tableColumn id="15" xr3:uid="{8ACB0870-3619-477D-A7D2-AA574B94DBD4}" name="Pre-Requisite" dataDxfId="219" totalsRowDxfId="218"/>
+    <tableColumn id="10" xr3:uid="{659372D5-C9CC-41E8-9569-93511561BC00}" name="Course Code" dataDxfId="217" totalsRowDxfId="216"/>
+    <tableColumn id="11" xr3:uid="{D56AECAB-5A16-435D-81B5-609A7D36AEBE}" name="Credit Hours" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="12" xr3:uid="{A1C5E82C-5836-4124-92EB-9BAFA5AF7757}" name="Credit Hour Price" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="13" xr3:uid="{5CF1FF64-9BF4-434F-8529-F1D78945F6AA}" name="Course Price" totalsRowFunction="sum" dataDxfId="211" totalsRowDxfId="210">
       <calculatedColumnFormula array="1">MMULT(F27,G27)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2299,16 +2299,16 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D4355C40-4E02-42F5-988D-4A5436A373D3}" name="Table14" displayName="Table14" ref="B37:H44" totalsRowCount="1" headerRowDxfId="223" dataDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D4355C40-4E02-42F5-988D-4A5436A373D3}" name="Table14" displayName="Table14" ref="B37:H44" totalsRowCount="1" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="B37:H43" xr:uid="{D4355C40-4E02-42F5-988D-4A5436A373D3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E26A93C8-AE4E-414C-8609-4626D90048C7}" name="C. No" dataDxfId="221" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B98BD1A5-2AC7-4419-A1C4-41F460F6882C}" name="Course Name" dataDxfId="220" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D7ED69CE-3C3D-4DB9-AD04-D42ED613A7BE}" name="Pre-Requisite" dataDxfId="219" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{9BD71A3A-3CD2-4155-8514-F83ED01B2573}" name="Course Code" dataDxfId="218" totalsRowDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{2C63F556-3497-4C45-8DD5-70C18A6C1647}" name="Credit Hours" dataDxfId="217" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{70C2C24E-CD3A-4255-B224-83BFBEC60F16}" name="Credit Hour Price" dataDxfId="216" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{AAA5AB50-4647-403F-81FB-0DC834CB70A6}" name="Course Price" totalsRowFunction="custom" dataDxfId="215" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{E26A93C8-AE4E-414C-8609-4626D90048C7}" name="C. No" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="2" xr3:uid="{B98BD1A5-2AC7-4419-A1C4-41F460F6882C}" name="Course Name" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="3" xr3:uid="{D7ED69CE-3C3D-4DB9-AD04-D42ED613A7BE}" name="Pre-Requisite" dataDxfId="203" totalsRowDxfId="202"/>
+    <tableColumn id="4" xr3:uid="{9BD71A3A-3CD2-4155-8514-F83ED01B2573}" name="Course Code" dataDxfId="201" totalsRowDxfId="200"/>
+    <tableColumn id="5" xr3:uid="{2C63F556-3497-4C45-8DD5-70C18A6C1647}" name="Credit Hours" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{70C2C24E-CD3A-4255-B224-83BFBEC60F16}" name="Credit Hour Price" dataDxfId="197" totalsRowDxfId="196"/>
+    <tableColumn id="7" xr3:uid="{AAA5AB50-4647-403F-81FB-0DC834CB70A6}" name="Course Price" totalsRowFunction="custom" dataDxfId="195" totalsRowDxfId="194">
       <calculatedColumnFormula array="1">MMULT(Table14[[#This Row],[Credit Hours]],Table14[[#This Row],[Credit Hour Price]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109, Table14[Course Price])</totalsRowFormula>
     </tableColumn>
@@ -2318,16 +2318,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5BF30FC0-0DED-469F-97BB-4489B34E0B57}" name="Table1368" displayName="Table1368" ref="B47:H54" totalsRowCount="1" headerRowDxfId="214" dataDxfId="213" totalsRowDxfId="212">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5BF30FC0-0DED-469F-97BB-4489B34E0B57}" name="Table1368" displayName="Table1368" ref="B47:H54" totalsRowCount="1" headerRowDxfId="193" dataDxfId="192" totalsRowDxfId="191">
   <autoFilter ref="B47:H53" xr:uid="{5BF30FC0-0DED-469F-97BB-4489B34E0B57}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{B64828CC-70B6-481E-8751-040DCF13806C}" name="C. No" dataDxfId="211" totalsRowDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{517C09CB-5A48-4E23-B313-E12769E4DC0D}" name="Course Name" dataDxfId="210" totalsRowDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{53AA2425-9B1D-4591-967B-465C4326D099}" name="Pre-Requisite" dataDxfId="209" totalsRowDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{578A44FF-83C6-47CA-8B00-60A563C3EEF0}" name="Course Code" dataDxfId="208" totalsRowDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{D9C7FA6F-EAA5-4DE5-8954-FA3BE0F4B246}" name="Credit Hours" dataDxfId="207" totalsRowDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{990CB230-10C5-486C-B992-EB264F34C368}" name="Credit Hour Price" dataDxfId="206" totalsRowDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{C0CAE4D3-081F-4843-87AB-C9EF38854009}" name="Course Price" totalsRowFunction="sum" dataDxfId="205" totalsRowDxfId="7">
+    <tableColumn id="8" xr3:uid="{B64828CC-70B6-481E-8751-040DCF13806C}" name="C. No" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="9" xr3:uid="{517C09CB-5A48-4E23-B313-E12769E4DC0D}" name="Course Name" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="15" xr3:uid="{53AA2425-9B1D-4591-967B-465C4326D099}" name="Pre-Requisite" dataDxfId="186" totalsRowDxfId="185"/>
+    <tableColumn id="10" xr3:uid="{578A44FF-83C6-47CA-8B00-60A563C3EEF0}" name="Course Code" dataDxfId="184" totalsRowDxfId="183"/>
+    <tableColumn id="11" xr3:uid="{D9C7FA6F-EAA5-4DE5-8954-FA3BE0F4B246}" name="Credit Hours" dataDxfId="182" totalsRowDxfId="181"/>
+    <tableColumn id="12" xr3:uid="{990CB230-10C5-486C-B992-EB264F34C368}" name="Credit Hour Price" dataDxfId="180" totalsRowDxfId="179"/>
+    <tableColumn id="13" xr3:uid="{C0CAE4D3-081F-4843-87AB-C9EF38854009}" name="Course Price" totalsRowFunction="sum" dataDxfId="178" totalsRowDxfId="177">
       <calculatedColumnFormula array="1">MMULT(F48,G48)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2336,16 +2336,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{225A79AA-1E6C-4A25-843E-BF1C506DE0BB}" name="Table136823" displayName="Table136823" ref="B57:H65" totalsRowCount="1" headerRowDxfId="204" dataDxfId="203" totalsRowDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{225A79AA-1E6C-4A25-843E-BF1C506DE0BB}" name="Table136823" displayName="Table136823" ref="B57:H65" totalsRowCount="1" headerRowDxfId="176" dataDxfId="175" totalsRowDxfId="174">
   <autoFilter ref="B57:H64" xr:uid="{225A79AA-1E6C-4A25-843E-BF1C506DE0BB}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{9E17818D-FB4E-4444-8590-E7CF360518AF}" name="C. No" dataDxfId="41" totalsRowDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{5428B2D8-86E9-43F1-AAE5-8F72ECE9F637}" name="Course Name" dataDxfId="40" totalsRowDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{4815685E-33A4-4920-AA6A-B7C0DF7839BD}" name="Pre-Requisite" dataDxfId="39" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{9D5102A6-5623-47CE-B2F1-46B015CBEA1F}" name="Course Code" dataDxfId="38" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{6FD41B09-EE2D-48E9-B293-6EDB777171FC}" name="Credit Hours" dataDxfId="37" totalsRowDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{657345A1-4DB2-429D-A3FB-A24319E3C23F}" name="Credit Hour Price" dataDxfId="36" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{2E889CCC-7B1F-4A1F-AC7D-A2647F18ACAB}" name="Course Price" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{9E17818D-FB4E-4444-8590-E7CF360518AF}" name="C. No" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="9" xr3:uid="{5428B2D8-86E9-43F1-AAE5-8F72ECE9F637}" name="Course Name" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="15" xr3:uid="{4815685E-33A4-4920-AA6A-B7C0DF7839BD}" name="Pre-Requisite" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="10" xr3:uid="{9D5102A6-5623-47CE-B2F1-46B015CBEA1F}" name="Course Code" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="11" xr3:uid="{6FD41B09-EE2D-48E9-B293-6EDB777171FC}" name="Credit Hours" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="12" xr3:uid="{657345A1-4DB2-429D-A3FB-A24319E3C23F}" name="Credit Hour Price" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="13" xr3:uid="{2E889CCC-7B1F-4A1F-AC7D-A2647F18ACAB}" name="Course Price" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160">
       <calculatedColumnFormula array="1">MMULT(F58,G58)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2354,44 +2354,44 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}" name="Table3" displayName="Table3" ref="B4:F11" totalsRowShown="0" dataDxfId="201">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}" name="Table3" displayName="Table3" ref="B4:F11" totalsRowShown="0" dataDxfId="159">
   <autoFilter ref="B4:F11" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{47BB9116-96B6-4659-B8C9-6763DFE5D1EB}" name="S. No" dataDxfId="200"/>
-    <tableColumn id="2" xr3:uid="{2B8CF846-525A-49A3-A6F6-814996D28C49}" name="Course Name" dataDxfId="199"/>
-    <tableColumn id="3" xr3:uid="{B231F6C5-4575-494A-8370-72E0D3EDCBDC}" name="Midterm" dataDxfId="198"/>
-    <tableColumn id="4" xr3:uid="{D6654B14-A53B-4F5A-9499-ECE1E8712304}" name="Pre-Final" dataDxfId="197"/>
-    <tableColumn id="5" xr3:uid="{EAE2A77F-EEAE-4EFE-9A61-3E4A9E141D71}" name="Final" dataDxfId="196"/>
+    <tableColumn id="1" xr3:uid="{47BB9116-96B6-4659-B8C9-6763DFE5D1EB}" name="S. No" dataDxfId="158"/>
+    <tableColumn id="2" xr3:uid="{2B8CF846-525A-49A3-A6F6-814996D28C49}" name="Course Name" dataDxfId="157"/>
+    <tableColumn id="3" xr3:uid="{B231F6C5-4575-494A-8370-72E0D3EDCBDC}" name="Midterm" dataDxfId="156"/>
+    <tableColumn id="4" xr3:uid="{D6654B14-A53B-4F5A-9499-ECE1E8712304}" name="Pre-Final" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{EAE2A77F-EEAE-4EFE-9A61-3E4A9E141D71}" name="Final" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}" name="Table35" displayName="Table35" ref="B15:H22" totalsRowShown="0" dataDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}" name="Table35" displayName="Table35" ref="B15:H22" totalsRowShown="0" dataDxfId="153">
   <autoFilter ref="B15:H22" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{02190C55-16B9-496A-8C2B-E2D76168AF93}" name="S. No" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{8DDC9744-D783-4D5E-B711-CF5C3C040ABC}" name="Course Name" dataDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{34FCA559-C89D-473C-8942-2292B887A2A4}" name="Midterm" dataDxfId="192"/>
-    <tableColumn id="11" xr3:uid="{26BFE13A-C341-4990-AFFA-A6ECAD09F356}" name="Pre-Final" dataDxfId="191"/>
-    <tableColumn id="12" xr3:uid="{BCC3D8B0-331D-4A91-B469-53D9E53C629B}" name="Final" dataDxfId="190"/>
-    <tableColumn id="3" xr3:uid="{AAF2F08F-0FFC-4D29-8E35-7A389C090684}" name="Bonus" dataDxfId="189"/>
-    <tableColumn id="5" xr3:uid="{6B12A4D2-2FF5-4394-9DE7-26EFEC40F165}" name="Project" dataDxfId="188"/>
+    <tableColumn id="1" xr3:uid="{02190C55-16B9-496A-8C2B-E2D76168AF93}" name="S. No" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{8DDC9744-D783-4D5E-B711-CF5C3C040ABC}" name="Course Name" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{34FCA559-C89D-473C-8942-2292B887A2A4}" name="Midterm" dataDxfId="150"/>
+    <tableColumn id="11" xr3:uid="{26BFE13A-C341-4990-AFFA-A6ECAD09F356}" name="Pre-Final" dataDxfId="149"/>
+    <tableColumn id="12" xr3:uid="{BCC3D8B0-331D-4A91-B469-53D9E53C629B}" name="Final" dataDxfId="148"/>
+    <tableColumn id="3" xr3:uid="{AAF2F08F-0FFC-4D29-8E35-7A389C090684}" name="Bonus" dataDxfId="147"/>
+    <tableColumn id="5" xr3:uid="{6B12A4D2-2FF5-4394-9DE7-26EFEC40F165}" name="Project" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}" name="Table6" displayName="Table6" ref="B26:F33" totalsRowShown="0" dataDxfId="187">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}" name="Table6" displayName="Table6" ref="B26:F33" totalsRowShown="0" dataDxfId="145">
   <autoFilter ref="B26:F33" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28F8E7D6-B383-4600-A048-22F8C4AD82D6}" name="S. No" dataDxfId="186"/>
-    <tableColumn id="2" xr3:uid="{98B567B0-0A0B-437E-A58C-5F6D5BF775AD}" name="Course Name" dataDxfId="185"/>
-    <tableColumn id="6" xr3:uid="{BE62E445-155B-4DCE-9238-BB400FE31908}" name="Midterm" dataDxfId="184"/>
-    <tableColumn id="7" xr3:uid="{C3F1662F-2159-423B-907C-383464F612E9}" name="Pre-Final" dataDxfId="183"/>
-    <tableColumn id="3" xr3:uid="{176A7C21-7E63-40F2-B1DC-6AF4F5AA9C6A}" name="Final" dataDxfId="182"/>
+    <tableColumn id="1" xr3:uid="{28F8E7D6-B383-4600-A048-22F8C4AD82D6}" name="S. No" dataDxfId="144"/>
+    <tableColumn id="2" xr3:uid="{98B567B0-0A0B-437E-A58C-5F6D5BF775AD}" name="Course Name" dataDxfId="143"/>
+    <tableColumn id="6" xr3:uid="{BE62E445-155B-4DCE-9238-BB400FE31908}" name="Midterm" dataDxfId="142"/>
+    <tableColumn id="7" xr3:uid="{C3F1662F-2159-423B-907C-383464F612E9}" name="Pre-Final" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{176A7C21-7E63-40F2-B1DC-6AF4F5AA9C6A}" name="Final" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2744,10 +2744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CFA252-092A-4B93-AE8C-B7C35D64BCB8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2769,11 +2769,11 @@
       <c r="B1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="37">
+      <c r="C1" s="35">
         <f>SUBTOTAL(9,F:F)</f>
         <v>103</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>164</v>
       </c>
       <c r="E1" s="8">
@@ -3359,21 +3359,21 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="35">
+      <c r="B33" s="33">
         <v>7</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="36" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
         <v>850</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="33">
         <v>1700</v>
       </c>
     </row>
@@ -3924,11 +3924,16 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D65" s="8"/>
       <c r="H65" s="8">
         <f>SUBTOTAL(109,Table136823[Course Price])</f>
         <v>16560</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3984,11 +3989,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="E1" t="s">
         <v>158</v>
       </c>
@@ -4973,11 +4978,11 @@
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5926,23 +5931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6080,31 +6068,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6120,4 +6101,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EDA15E-0E4A-4054-9DB8-1409EC149103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973FDF15-7E81-4966-A698-F0E15F1A3714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="165">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -556,9 +556,6 @@
   </si>
   <si>
     <t>Required to graduate</t>
-  </si>
-  <si>
-    <t>what do you think??</t>
   </si>
 </sst>
 </file>
@@ -2744,10 +2741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CFA252-092A-4B93-AE8C-B7C35D64BCB8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3924,16 +3921,11 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D65" s="8"/>
       <c r="H65" s="8">
         <f>SUBTOTAL(109,Table136823[Course Price])</f>
         <v>16560</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5931,6 +5923,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6068,24 +6077,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6101,28 +6117,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973FDF15-7E81-4966-A698-F0E15F1A3714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC76AF9-E5CA-4A53-B6F9-EEC72445D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="169">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -556,6 +556,18 @@
   </si>
   <si>
     <t>Required to graduate</t>
+  </si>
+  <si>
+    <t>Assignment1</t>
+  </si>
+  <si>
+    <t>Assignment1 Max</t>
+  </si>
+  <si>
+    <t>Assignment2</t>
+  </si>
+  <si>
+    <t>Assignment2 Max</t>
   </si>
 </sst>
 </file>
@@ -2743,7 +2755,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A54" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -3956,8 +3968,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4938,8 +4950,12 @@
       <c r="C62" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="D62" s="8">
+        <v>16</v>
+      </c>
+      <c r="E62" s="8">
+        <v>20</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="21"/>
@@ -4954,10 +4970,18 @@
       <c r="C63" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="8">
+        <v>14</v>
+      </c>
+      <c r="E63" s="8">
+        <v>25</v>
+      </c>
+      <c r="F63" s="8">
+        <v>19</v>
+      </c>
+      <c r="G63" s="8">
+        <v>40</v>
+      </c>
       <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -5028,8 +5052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView topLeftCell="A85" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5784,64 +5808,86 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B97" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C97" s="31"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B98" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C98" s="25"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>155</v>
       </c>
       <c r="C101" s="31"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C102" s="25"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B105" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="C105" s="31"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F105" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B106" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C106" s="25"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="D106" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="E106" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="F106" s="25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B109" s="30" t="s">
         <v>157</v>
       </c>
       <c r="C109" s="31"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B110" s="32" t="s">
         <v>63</v>
       </c>
@@ -5923,23 +5969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6077,31 +6106,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6117,4 +6139,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC76AF9-E5CA-4A53-B6F9-EEC72445D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC68DB6-DE21-4685-872F-34CC88276ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="170">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -568,6 +568,9 @@
   </si>
   <si>
     <t>Assignment2 Max</t>
+  </si>
+  <si>
+    <t>Quiz1 Maz</t>
   </si>
 </sst>
 </file>
@@ -857,6 +860,18 @@
   </cellStyles>
   <dxfs count="253">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1285,18 +1300,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2026,101 +2029,101 @@
     <tableColumn id="2" xr3:uid="{1A6EF9CF-36EA-4225-8EDC-59E8261EE8ED}" name="Course Name" dataDxfId="123"/>
     <tableColumn id="4" xr3:uid="{8DCECEC6-AF29-4448-A504-394C4F78710B}" name="Midterm" dataDxfId="122"/>
     <tableColumn id="6" xr3:uid="{A777B523-E7AD-4B84-A6C4-E17D9A3BFEC2}" name="Midterm Max" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <autoFilter ref="B5:I6" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D1D035A0-8468-4A7F-BBC8-CFCD96813B23}" name="Multimedia Systems" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{F67BEE79-F853-45BF-ACC7-46967A79CC91}" name="Tasks" dataDxfId="114"/>
-    <tableColumn id="3" xr3:uid="{C5E6CA24-CF22-43DE-85B3-B617638899F8}" name="Project 1" dataDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{CE096E8B-0AE9-44EE-B92F-A2252BD19F8C}" name="Bonus" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{31FCDAB2-1D09-4A11-9E1A-B2CD4AF7F500}" name="Attendance" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{94F7195F-14BE-405B-A2B6-09558AF95CE3}" name="Project 2" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{52A7195C-5714-4061-AC64-56C2AAB3A983}" name="Projects" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{F81B11B2-B747-4E38-8D17-165EDC9C5B68}" name="Total2" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{D1D035A0-8468-4A7F-BBC8-CFCD96813B23}" name="Multimedia Systems" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{F67BEE79-F853-45BF-ACC7-46967A79CC91}" name="Tasks" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{C5E6CA24-CF22-43DE-85B3-B617638899F8}" name="Project 1" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{CE096E8B-0AE9-44EE-B92F-A2252BD19F8C}" name="Bonus" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{31FCDAB2-1D09-4A11-9E1A-B2CD4AF7F500}" name="Attendance" dataDxfId="114"/>
+    <tableColumn id="8" xr3:uid="{94F7195F-14BE-405B-A2B6-09558AF95CE3}" name="Project 2" dataDxfId="113"/>
+    <tableColumn id="5" xr3:uid="{52A7195C-5714-4061-AC64-56C2AAB3A983}" name="Projects" dataDxfId="112"/>
+    <tableColumn id="6" xr3:uid="{F81B11B2-B747-4E38-8D17-165EDC9C5B68}" name="Total2" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
   <autoFilter ref="B9:F10" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{700B3547-6D3B-4765-A5E4-AC07353FFE64}" name="Software Engineering Theory" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{C9951BA9-3C1D-49EF-830C-D48C1BEEC830}" name="Presentation&amp;Assignments" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{E647E6EE-A073-4519-87D8-02044BBC6F98}" name="Project" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{F2D93F54-8EAD-4ED9-87AE-E37C13C3187F}" name="Bonus" dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{2C44B120-1098-4D7D-BF6F-BF2542B03382}" name="Total" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{700B3547-6D3B-4765-A5E4-AC07353FFE64}" name="Software Engineering Theory" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{C9951BA9-3C1D-49EF-830C-D48C1BEEC830}" name="Presentation&amp;Assignments" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{E647E6EE-A073-4519-87D8-02044BBC6F98}" name="Project" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{F2D93F54-8EAD-4ED9-87AE-E37C13C3187F}" name="Bonus" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{2C44B120-1098-4D7D-BF6F-BF2542B03382}" name="Total" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="B13:C14" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB6AF181-FD31-4972-85B7-B738A5302BA5}" name="Maths III" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{2776461E-0EFC-42E5-83DD-8C7E8528663B}" name="Quizes" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{FB6AF181-FD31-4972-85B7-B738A5302BA5}" name="Maths III" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{2776461E-0EFC-42E5-83DD-8C7E8528663B}" name="Quizes" dataDxfId="100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
   <autoFilter ref="B17:C18" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{33428839-BE00-405F-9EFD-BBE0568E2A50}" name="Game Programming" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{3EF9BDEC-F6DE-419C-82EF-18636B80F540}" name="Project" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{33428839-BE00-405F-9EFD-BBE0568E2A50}" name="Game Programming" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{3EF9BDEC-F6DE-419C-82EF-18636B80F540}" name="Project" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="B21:F22" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D13213E2-B9FE-49ED-A2E5-13C00C70344C}" name="Data Structures" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{643FCD96-8371-4D07-98EB-5BE319409B38}" name="Quizes" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{4D3F7FF1-2E45-4C42-8083-75A4C9E67D00}" name="Attendance" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{0B5A6AB0-906B-4082-8488-F9B2849D3D26}" name="Assignments" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{CFB73E2E-4C15-455B-9767-60198BF30E91}" name="Report" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{D13213E2-B9FE-49ED-A2E5-13C00C70344C}" name="Data Structures" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{643FCD96-8371-4D07-98EB-5BE319409B38}" name="Quizes" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{4D3F7FF1-2E45-4C42-8083-75A4C9E67D00}" name="Attendance" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{0B5A6AB0-906B-4082-8488-F9B2849D3D26}" name="Assignments" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{CFB73E2E-4C15-455B-9767-60198BF30E91}" name="Report" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="B29:E30" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8D9EF0C0-1B3E-4863-8BAF-044C59C9A388}" name="Web Programming" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{AE418BE6-92BC-432F-9F67-196A7F9940EF}" name="Project" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{D4EC974C-3393-48D5-B53E-585F3D0D1997}" name="Sections" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{E33770EB-3DDD-4D63-94FA-A598B90F5B67}" name="Bonus" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{8D9EF0C0-1B3E-4863-8BAF-044C59C9A388}" name="Web Programming" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{AE418BE6-92BC-432F-9F67-196A7F9940EF}" name="Project" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{D4EC974C-3393-48D5-B53E-585F3D0D1997}" name="Sections" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{E33770EB-3DDD-4D63-94FA-A598B90F5B67}" name="Bonus" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="B33:D34" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B12A5AD3-F7F5-4108-BCE4-51518FCFC4E4}" name="Database" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{8DFA2315-436C-47E5-BC83-BF1E161BAC8D}" name="ERD &amp; Business Rules" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{0B716030-3726-45F6-9CBF-54A88D8F5F46}" name="SQL" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{B12A5AD3-F7F5-4108-BCE4-51518FCFC4E4}" name="Database" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{8DFA2315-436C-47E5-BC83-BF1E161BAC8D}" name="ERD &amp; Business Rules" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{0B716030-3726-45F6-9CBF-54A88D8F5F46}" name="SQL" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2143,147 +2146,147 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="B37:G38" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A927A777-891A-459A-B181-D3F12121968A}" name="HCI" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{79EAEA15-A950-4644-BAC9-5F313DE31336}" name="Persona &amp; Comp. Research" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{38B85951-D9A2-40C7-A404-E6D3FAC57915}" name="User Flow &amp; Sketching" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{9A317C4B-A29C-447E-81E3-B9999A6E82CB}" name="Wireframe" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{7F815F66-3A06-49CE-B7D6-F50614693D29}" name="Protoype" dataDxfId="68"/>
-    <tableColumn id="6" xr3:uid="{FCD0A372-08B9-4F5C-A6F6-69F4B9E5B973}" name="Mouse Cursor Project" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{A927A777-891A-459A-B181-D3F12121968A}" name="HCI" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{79EAEA15-A950-4644-BAC9-5F313DE31336}" name="Persona &amp; Comp. Research" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{38B85951-D9A2-40C7-A404-E6D3FAC57915}" name="User Flow &amp; Sketching" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{9A317C4B-A29C-447E-81E3-B9999A6E82CB}" name="Wireframe" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{7F815F66-3A06-49CE-B7D6-F50614693D29}" name="Protoype" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{FCD0A372-08B9-4F5C-A6F6-69F4B9E5B973}" name="Mouse Cursor Project" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="B41:E42" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035A81E6-D0E9-4514-856A-4268F8CC9DA6}" name="SWRA" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{12D2C635-A485-47AD-8190-8C54FBF9000C}" name="Project" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{45F2C637-AC09-44A5-92E8-6BADCFC9B3F1}" name="Tasks" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{8FA9D5CD-8C7B-4804-B737-1E714122E0BB}" name="Bonus" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{035A81E6-D0E9-4514-856A-4268F8CC9DA6}" name="SWRA" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{12D2C635-A485-47AD-8190-8C54FBF9000C}" name="Project" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{45F2C637-AC09-44A5-92E8-6BADCFC9B3F1}" name="Tasks" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{8FA9D5CD-8C7B-4804-B737-1E714122E0BB}" name="Bonus" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="B45:G46" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42FC35EA-B43D-48B3-B3A3-595F88F92450}" name="Data Mining" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{9FEB74EB-AC46-401B-BB9E-8C8A45D5AF88}" name="Quiz" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{8B9598E1-5543-4747-9C5F-C4096AAF4F60}" name="Assignment 1" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{891DC4A3-A6EA-4A59-BA25-7BA469C2BB0A}" name="Assignment 2" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{758071D9-C1B0-45BD-B6BF-33C3918898F3}" name="Quiz 2" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{343E6371-5E31-41BB-B2F7-397D9E50F2F8}" name="Total" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{42FC35EA-B43D-48B3-B3A3-595F88F92450}" name="Data Mining" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{9FEB74EB-AC46-401B-BB9E-8C8A45D5AF88}" name="Quiz" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{8B9598E1-5543-4747-9C5F-C4096AAF4F60}" name="Assignment 1" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{891DC4A3-A6EA-4A59-BA25-7BA469C2BB0A}" name="Assignment 2" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{758071D9-C1B0-45BD-B6BF-33C3918898F3}" name="Quiz 2" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{343E6371-5E31-41BB-B2F7-397D9E50F2F8}" name="Total" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B49:C50" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62817289-D4F9-4533-A45B-83BD78F1E21D}" name="Maths IV" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{85694941-D6AA-4481-BDF5-36CF8B4AE004}" name="Quiz" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{62817289-D4F9-4533-A45B-83BD78F1E21D}" name="Maths IV" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{85694941-D6AA-4481-BDF5-36CF8B4AE004}" name="Quiz" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B57:H58" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B39D5E1C-69EB-4152-B8A8-1760D2448A90}" name="Linear Algebra" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{D10D149E-232F-4DAA-81C5-31D861839F41}" name="Quiz1" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{5CA6916F-5FA5-47DB-A9BD-91A639B91014}" name="Quiz1 Max" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{A3325A9B-02FB-4C53-B892-28DB2A463736}" name="Quiz2" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{44A6C65B-FA82-49DB-A3BB-780E2DED5ECE}" name="Quiz22" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{E6C766A9-E04E-4ADB-84CB-0183A38391BF}" name="Total" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{B39D5E1C-69EB-4152-B8A8-1760D2448A90}" name="Linear Algebra" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{D10D149E-232F-4DAA-81C5-31D861839F41}" name="Quiz1" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{5CA6916F-5FA5-47DB-A9BD-91A639B91014}" name="Quiz1 Max" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{A3325A9B-02FB-4C53-B892-28DB2A463736}" name="Quiz2" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{44A6C65B-FA82-49DB-A3BB-780E2DED5ECE}" name="Quiz22" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{E6C766A9-E04E-4ADB-84CB-0183A38391BF}" name="Total" dataDxfId="44">
       <calculatedColumnFormula>+Table1012172213[[#This Row],[Quiz1]]+Table1012172213[[#This Row],[Quiz2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89E4E1E6-96CC-4FF6-B9D1-52ECF82969B0}" name="Total Max" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{89E4E1E6-96CC-4FF6-B9D1-52ECF82969B0}" name="Total Max" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="B61:I62" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A1410ADB-FBAA-48A1-A8DF-3A8B2E651D8B}" name="Opearting Systems" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{8776271C-5F25-4785-A95B-B458AEF6F282}" name="Quiz1" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{05E6A514-432C-455E-9251-B2B593D26098}" name="Quiz1 Max" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{36387145-7C98-4055-ABC2-E7AC4D91D251}" name="Quiz 2" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{F134A27C-6A58-4C39-A569-9F69227340DC}" name="Quiz2 Max" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{2E7E518B-2E59-4E43-8726-08526026E34B}" name="Report" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{6157D7A2-D60B-4F03-A097-7482D25F89D6}" name="Total" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{7547E26B-F008-458B-9456-6DEE8B7DB78B}" name="Total Max" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{A1410ADB-FBAA-48A1-A8DF-3A8B2E651D8B}" name="Opearting Systems" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{8776271C-5F25-4785-A95B-B458AEF6F282}" name="Quiz1" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{05E6A514-432C-455E-9251-B2B593D26098}" name="Quiz1 Max" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{36387145-7C98-4055-ABC2-E7AC4D91D251}" name="Quiz 2" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{F134A27C-6A58-4C39-A569-9F69227340DC}" name="Quiz2 Max" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{2E7E518B-2E59-4E43-8726-08526026E34B}" name="Report" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{6157D7A2-D60B-4F03-A097-7482D25F89D6}" name="Total" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{7547E26B-F008-458B-9456-6DEE8B7DB78B}" name="Total Max" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B65:G66" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{186B9208-1B02-463B-927F-54C5F3F8ECA3}" name="Design and Analysis of Algorithms" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{5AF780C1-C46C-4238-A76A-BBE35D0DD3CE}" name="Quiz 1" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{C8A6FE4A-0A69-4C2A-A833-697D0B90F623}" name="Project" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{780FF1E4-AD54-4288-822A-14F698E383A9}" name="Total" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{B539CB65-6FBB-48BA-BF1A-D9899FE91DF1}" name="Total Max" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7C2146AE-0FA2-490E-A979-F82977B2A392}" name="Bonus" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{186B9208-1B02-463B-927F-54C5F3F8ECA3}" name="Design and Analysis of Algorithms" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{5AF780C1-C46C-4238-A76A-BBE35D0DD3CE}" name="Quiz 1" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{C8A6FE4A-0A69-4C2A-A833-697D0B90F623}" name="Project" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{780FF1E4-AD54-4288-822A-14F698E383A9}" name="Total" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{B539CB65-6FBB-48BA-BF1A-D9899FE91DF1}" name="Total Max" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{7C2146AE-0FA2-490E-A979-F82977B2A392}" name="Bonus" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B69:F70" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{75F94FF8-2D45-4A55-99D4-4ED627023AFA}" name="Advanced Methods for Multimedia" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{88705062-D7C8-46E8-AA95-DAA631863958}" name="Sec Projects" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{F9618B6F-2F74-440B-9CF9-C226705955DC}" name="Sec Projects Max" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4A66F216-977C-4163-B8CE-EDD7CBF7203B}" name="Lec Projects" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{DFE53239-C42B-4445-B658-06DB1051C764}" name="Lec Projects Max" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{75F94FF8-2D45-4A55-99D4-4ED627023AFA}" name="Advanced Methods for Multimedia" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{88705062-D7C8-46E8-AA95-DAA631863958}" name="Sec Projects" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{F9618B6F-2F74-440B-9CF9-C226705955DC}" name="Sec Projects Max" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{4A66F216-977C-4163-B8CE-EDD7CBF7203B}" name="Lec Projects" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{DFE53239-C42B-4445-B658-06DB1051C764}" name="Lec Projects Max" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B73:F74" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A5601E5C-E375-40C5-97A4-E21B705AA075}" name="Intelligent Systems" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2240AD9C-38F6-47C4-8BD5-EAEE10C04068}" name="Assignment" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A14BA645-2253-4B09-B74C-057576947793}" name="Project" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BDAE3480-C7EC-4F7C-878D-4C50E6262734}" name="Total" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{6C410047-0482-4545-9881-9931EE4C7F26}" name="Total Max" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A5601E5C-E375-40C5-97A4-E21B705AA075}" name="Intelligent Systems" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2240AD9C-38F6-47C4-8BD5-EAEE10C04068}" name="Assignment" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A14BA645-2253-4B09-B74C-057576947793}" name="Project" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{BDAE3480-C7EC-4F7C-878D-4C50E6262734}" name="Total" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{6C410047-0482-4545-9881-9931EE4C7F26}" name="Total Max" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="B77:G78" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD37413B-4A28-483D-9B6C-CA2468F72F8B}" name="Large-Scale Database" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8ACAF496-83AE-4577-8105-E7F2D418F493}" name="Project 1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{0AFE68A8-52C8-4747-BB8A-3B1C38E2BD7D}" name="Project 2" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1BD72070-2E8A-4BBA-A175-C20D83CE3B45}" name="Assignment" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EE08EFA1-C67A-468D-8D2C-6693EA6A1EED}" name="Total" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{2726B104-3C2D-4D50-852A-49C52478DDCE}" name="Total Max" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BD37413B-4A28-483D-9B6C-CA2468F72F8B}" name="Large-Scale Database" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{8ACAF496-83AE-4577-8105-E7F2D418F493}" name="Project 1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0AFE68A8-52C8-4747-BB8A-3B1C38E2BD7D}" name="Project 2" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1BD72070-2E8A-4BBA-A175-C20D83CE3B45}" name="Assignment" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EE08EFA1-C67A-468D-8D2C-6693EA6A1EED}" name="Total" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2726B104-3C2D-4D50-852A-49C52478DDCE}" name="Total Max" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3968,8 +3971,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4896,10 +4899,16 @@
       <c r="C58" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="D58" s="8">
+        <v>11.2</v>
+      </c>
+      <c r="E58" s="8">
+        <v>20</v>
+      </c>
       <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="G58" s="8">
+        <v>40</v>
+      </c>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4912,6 +4921,18 @@
       <c r="C59" s="8" t="s">
         <v>149</v>
       </c>
+      <c r="D59" s="8">
+        <v>13</v>
+      </c>
+      <c r="E59" s="8">
+        <v>20</v>
+      </c>
+      <c r="F59" s="8">
+        <v>18</v>
+      </c>
+      <c r="G59" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
@@ -4923,6 +4944,12 @@
       <c r="C60" s="8" t="s">
         <v>150</v>
       </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
@@ -4934,10 +4961,16 @@
       <c r="C61" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="D61" s="8">
+        <v>19</v>
+      </c>
+      <c r="E61" s="8">
+        <v>20</v>
+      </c>
       <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="G61" s="8">
+        <v>40</v>
+      </c>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -4957,7 +4990,9 @@
         <v>20</v>
       </c>
       <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="G62" s="8">
+        <v>40</v>
+      </c>
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4997,7 +5032,9 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="G64" s="8">
+        <v>40</v>
+      </c>
       <c r="H64" s="8"/>
     </row>
   </sheetData>
@@ -5052,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A83" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5747,63 +5784,73 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
         <v>154</v>
       </c>
       <c r="C85" s="31"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C86" s="25"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="31"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C90" s="25"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="25">
+        <v>5</v>
+      </c>
+      <c r="D90" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="31"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B94" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C94" s="25"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>151</v>
       </c>
@@ -5969,6 +6016,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6106,24 +6170,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6139,28 +6210,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC68DB6-DE21-4685-872F-34CC88276ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F2D76-A6F7-482C-A66C-498186679784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="171">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -570,7 +570,10 @@
     <t>Assignment2 Max</t>
   </si>
   <si>
-    <t>Quiz1 Maz</t>
+    <t>Project Max</t>
+  </si>
+  <si>
+    <t>ReportMax</t>
   </si>
 </sst>
 </file>
@@ -860,18 +863,6 @@
   </cellStyles>
   <dxfs count="253">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1300,6 +1291,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2029,101 +2032,101 @@
     <tableColumn id="2" xr3:uid="{1A6EF9CF-36EA-4225-8EDC-59E8261EE8ED}" name="Course Name" dataDxfId="123"/>
     <tableColumn id="4" xr3:uid="{8DCECEC6-AF29-4448-A504-394C4F78710B}" name="Midterm" dataDxfId="122"/>
     <tableColumn id="6" xr3:uid="{A777B523-E7AD-4B84-A6C4-E17D9A3BFEC2}" name="Midterm Max" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B5:I6" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D1D035A0-8468-4A7F-BBC8-CFCD96813B23}" name="Multimedia Systems" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{F67BEE79-F853-45BF-ACC7-46967A79CC91}" name="Tasks" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{C5E6CA24-CF22-43DE-85B3-B617638899F8}" name="Project 1" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{CE096E8B-0AE9-44EE-B92F-A2252BD19F8C}" name="Bonus" dataDxfId="115"/>
-    <tableColumn id="7" xr3:uid="{31FCDAB2-1D09-4A11-9E1A-B2CD4AF7F500}" name="Attendance" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{94F7195F-14BE-405B-A2B6-09558AF95CE3}" name="Project 2" dataDxfId="113"/>
-    <tableColumn id="5" xr3:uid="{52A7195C-5714-4061-AC64-56C2AAB3A983}" name="Projects" dataDxfId="112"/>
-    <tableColumn id="6" xr3:uid="{F81B11B2-B747-4E38-8D17-165EDC9C5B68}" name="Total2" dataDxfId="111"/>
+    <tableColumn id="1" xr3:uid="{D1D035A0-8468-4A7F-BBC8-CFCD96813B23}" name="Multimedia Systems" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{F67BEE79-F853-45BF-ACC7-46967A79CC91}" name="Tasks" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{C5E6CA24-CF22-43DE-85B3-B617638899F8}" name="Project 1" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{CE096E8B-0AE9-44EE-B92F-A2252BD19F8C}" name="Bonus" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{31FCDAB2-1D09-4A11-9E1A-B2CD4AF7F500}" name="Attendance" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{94F7195F-14BE-405B-A2B6-09558AF95CE3}" name="Project 2" dataDxfId="110"/>
+    <tableColumn id="5" xr3:uid="{52A7195C-5714-4061-AC64-56C2AAB3A983}" name="Projects" dataDxfId="109"/>
+    <tableColumn id="6" xr3:uid="{F81B11B2-B747-4E38-8D17-165EDC9C5B68}" name="Total2" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B9:F10" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{700B3547-6D3B-4765-A5E4-AC07353FFE64}" name="Software Engineering Theory" dataDxfId="108"/>
-    <tableColumn id="2" xr3:uid="{C9951BA9-3C1D-49EF-830C-D48C1BEEC830}" name="Presentation&amp;Assignments" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{E647E6EE-A073-4519-87D8-02044BBC6F98}" name="Project" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{F2D93F54-8EAD-4ED9-87AE-E37C13C3187F}" name="Bonus" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{2C44B120-1098-4D7D-BF6F-BF2542B03382}" name="Total" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{700B3547-6D3B-4765-A5E4-AC07353FFE64}" name="Software Engineering Theory" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C9951BA9-3C1D-49EF-830C-D48C1BEEC830}" name="Presentation&amp;Assignments" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{E647E6EE-A073-4519-87D8-02044BBC6F98}" name="Project" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{F2D93F54-8EAD-4ED9-87AE-E37C13C3187F}" name="Bonus" dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{2C44B120-1098-4D7D-BF6F-BF2542B03382}" name="Total" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="B13:C14" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB6AF181-FD31-4972-85B7-B738A5302BA5}" name="Maths III" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{2776461E-0EFC-42E5-83DD-8C7E8528663B}" name="Quizes" dataDxfId="100"/>
+    <tableColumn id="1" xr3:uid="{FB6AF181-FD31-4972-85B7-B738A5302BA5}" name="Maths III" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{2776461E-0EFC-42E5-83DD-8C7E8528663B}" name="Quizes" dataDxfId="97"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="B17:C18" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{33428839-BE00-405F-9EFD-BBE0568E2A50}" name="Game Programming" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{3EF9BDEC-F6DE-419C-82EF-18636B80F540}" name="Project" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{33428839-BE00-405F-9EFD-BBE0568E2A50}" name="Game Programming" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{3EF9BDEC-F6DE-419C-82EF-18636B80F540}" name="Project" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B21:F22" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D13213E2-B9FE-49ED-A2E5-13C00C70344C}" name="Data Structures" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{643FCD96-8371-4D07-98EB-5BE319409B38}" name="Quizes" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{4D3F7FF1-2E45-4C42-8083-75A4C9E67D00}" name="Attendance" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{0B5A6AB0-906B-4082-8488-F9B2849D3D26}" name="Assignments" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{CFB73E2E-4C15-455B-9767-60198BF30E91}" name="Report" dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{D13213E2-B9FE-49ED-A2E5-13C00C70344C}" name="Data Structures" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{643FCD96-8371-4D07-98EB-5BE319409B38}" name="Quizes" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{4D3F7FF1-2E45-4C42-8083-75A4C9E67D00}" name="Attendance" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{0B5A6AB0-906B-4082-8488-F9B2849D3D26}" name="Assignments" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{CFB73E2E-4C15-455B-9767-60198BF30E91}" name="Report" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="B29:E30" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8D9EF0C0-1B3E-4863-8BAF-044C59C9A388}" name="Web Programming" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{AE418BE6-92BC-432F-9F67-196A7F9940EF}" name="Project" dataDxfId="85"/>
-    <tableColumn id="3" xr3:uid="{D4EC974C-3393-48D5-B53E-585F3D0D1997}" name="Sections" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{E33770EB-3DDD-4D63-94FA-A598B90F5B67}" name="Bonus" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{8D9EF0C0-1B3E-4863-8BAF-044C59C9A388}" name="Web Programming" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{AE418BE6-92BC-432F-9F67-196A7F9940EF}" name="Project" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{D4EC974C-3393-48D5-B53E-585F3D0D1997}" name="Sections" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{E33770EB-3DDD-4D63-94FA-A598B90F5B67}" name="Bonus" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="B33:D34" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B12A5AD3-F7F5-4108-BCE4-51518FCFC4E4}" name="Database" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{8DFA2315-436C-47E5-BC83-BF1E161BAC8D}" name="ERD &amp; Business Rules" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{0B716030-3726-45F6-9CBF-54A88D8F5F46}" name="SQL" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{B12A5AD3-F7F5-4108-BCE4-51518FCFC4E4}" name="Database" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{8DFA2315-436C-47E5-BC83-BF1E161BAC8D}" name="ERD &amp; Business Rules" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{0B716030-3726-45F6-9CBF-54A88D8F5F46}" name="SQL" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2146,147 +2149,147 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="B37:G38" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A927A777-891A-459A-B181-D3F12121968A}" name="HCI" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{79EAEA15-A950-4644-BAC9-5F313DE31336}" name="Persona &amp; Comp. Research" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{38B85951-D9A2-40C7-A404-E6D3FAC57915}" name="User Flow &amp; Sketching" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{9A317C4B-A29C-447E-81E3-B9999A6E82CB}" name="Wireframe" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{7F815F66-3A06-49CE-B7D6-F50614693D29}" name="Protoype" dataDxfId="71"/>
-    <tableColumn id="6" xr3:uid="{FCD0A372-08B9-4F5C-A6F6-69F4B9E5B973}" name="Mouse Cursor Project" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{A927A777-891A-459A-B181-D3F12121968A}" name="HCI" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{79EAEA15-A950-4644-BAC9-5F313DE31336}" name="Persona &amp; Comp. Research" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{38B85951-D9A2-40C7-A404-E6D3FAC57915}" name="User Flow &amp; Sketching" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{9A317C4B-A29C-447E-81E3-B9999A6E82CB}" name="Wireframe" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{7F815F66-3A06-49CE-B7D6-F50614693D29}" name="Protoype" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{FCD0A372-08B9-4F5C-A6F6-69F4B9E5B973}" name="Mouse Cursor Project" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B41:E42" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{035A81E6-D0E9-4514-856A-4268F8CC9DA6}" name="SWRA" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{12D2C635-A485-47AD-8190-8C54FBF9000C}" name="Project" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{45F2C637-AC09-44A5-92E8-6BADCFC9B3F1}" name="Tasks" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{8FA9D5CD-8C7B-4804-B737-1E714122E0BB}" name="Bonus" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{035A81E6-D0E9-4514-856A-4268F8CC9DA6}" name="SWRA" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{12D2C635-A485-47AD-8190-8C54FBF9000C}" name="Project" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{45F2C637-AC09-44A5-92E8-6BADCFC9B3F1}" name="Tasks" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{8FA9D5CD-8C7B-4804-B737-1E714122E0BB}" name="Bonus" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B45:G46" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{42FC35EA-B43D-48B3-B3A3-595F88F92450}" name="Data Mining" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{9FEB74EB-AC46-401B-BB9E-8C8A45D5AF88}" name="Quiz" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{8B9598E1-5543-4747-9C5F-C4096AAF4F60}" name="Assignment 1" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{891DC4A3-A6EA-4A59-BA25-7BA469C2BB0A}" name="Assignment 2" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{758071D9-C1B0-45BD-B6BF-33C3918898F3}" name="Quiz 2" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{343E6371-5E31-41BB-B2F7-397D9E50F2F8}" name="Total" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{42FC35EA-B43D-48B3-B3A3-595F88F92450}" name="Data Mining" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{9FEB74EB-AC46-401B-BB9E-8C8A45D5AF88}" name="Quiz" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{8B9598E1-5543-4747-9C5F-C4096AAF4F60}" name="Assignment 1" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{891DC4A3-A6EA-4A59-BA25-7BA469C2BB0A}" name="Assignment 2" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{758071D9-C1B0-45BD-B6BF-33C3918898F3}" name="Quiz 2" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{343E6371-5E31-41BB-B2F7-397D9E50F2F8}" name="Total" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="B49:C50" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62817289-D4F9-4533-A45B-83BD78F1E21D}" name="Maths IV" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{85694941-D6AA-4481-BDF5-36CF8B4AE004}" name="Quiz" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{62817289-D4F9-4533-A45B-83BD78F1E21D}" name="Maths IV" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{85694941-D6AA-4481-BDF5-36CF8B4AE004}" name="Quiz" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B57:H58" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B39D5E1C-69EB-4152-B8A8-1760D2448A90}" name="Linear Algebra" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{D10D149E-232F-4DAA-81C5-31D861839F41}" name="Quiz1" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{5CA6916F-5FA5-47DB-A9BD-91A639B91014}" name="Quiz1 Max" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{A3325A9B-02FB-4C53-B892-28DB2A463736}" name="Quiz2" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{44A6C65B-FA82-49DB-A3BB-780E2DED5ECE}" name="Quiz22" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{E6C766A9-E04E-4ADB-84CB-0183A38391BF}" name="Total" dataDxfId="44">
+    <tableColumn id="1" xr3:uid="{B39D5E1C-69EB-4152-B8A8-1760D2448A90}" name="Linear Algebra" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{D10D149E-232F-4DAA-81C5-31D861839F41}" name="Quiz1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{5CA6916F-5FA5-47DB-A9BD-91A639B91014}" name="Quiz1 Max" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{A3325A9B-02FB-4C53-B892-28DB2A463736}" name="Quiz2" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{44A6C65B-FA82-49DB-A3BB-780E2DED5ECE}" name="Quiz22" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{E6C766A9-E04E-4ADB-84CB-0183A38391BF}" name="Total" dataDxfId="41">
       <calculatedColumnFormula>+Table1012172213[[#This Row],[Quiz1]]+Table1012172213[[#This Row],[Quiz2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{89E4E1E6-96CC-4FF6-B9D1-52ECF82969B0}" name="Total Max" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{89E4E1E6-96CC-4FF6-B9D1-52ECF82969B0}" name="Total Max" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B61:I62" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A1410ADB-FBAA-48A1-A8DF-3A8B2E651D8B}" name="Opearting Systems" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{8776271C-5F25-4785-A95B-B458AEF6F282}" name="Quiz1" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{05E6A514-432C-455E-9251-B2B593D26098}" name="Quiz1 Max" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{36387145-7C98-4055-ABC2-E7AC4D91D251}" name="Quiz 2" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{F134A27C-6A58-4C39-A569-9F69227340DC}" name="Quiz2 Max" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{2E7E518B-2E59-4E43-8726-08526026E34B}" name="Report" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{6157D7A2-D60B-4F03-A097-7482D25F89D6}" name="Total" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{7547E26B-F008-458B-9456-6DEE8B7DB78B}" name="Total Max" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{A1410ADB-FBAA-48A1-A8DF-3A8B2E651D8B}" name="Opearting Systems" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{8776271C-5F25-4785-A95B-B458AEF6F282}" name="Quiz1" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{05E6A514-432C-455E-9251-B2B593D26098}" name="Quiz1 Max" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{36387145-7C98-4055-ABC2-E7AC4D91D251}" name="Quiz 2" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{F134A27C-6A58-4C39-A569-9F69227340DC}" name="Quiz2 Max" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{2E7E518B-2E59-4E43-8726-08526026E34B}" name="Report" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{6157D7A2-D60B-4F03-A097-7482D25F89D6}" name="Total" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{7547E26B-F008-458B-9456-6DEE8B7DB78B}" name="Total Max" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B65:G66" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{186B9208-1B02-463B-927F-54C5F3F8ECA3}" name="Design and Analysis of Algorithms" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{5AF780C1-C46C-4238-A76A-BBE35D0DD3CE}" name="Quiz 1" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{C8A6FE4A-0A69-4C2A-A833-697D0B90F623}" name="Project" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{780FF1E4-AD54-4288-822A-14F698E383A9}" name="Total" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{B539CB65-6FBB-48BA-BF1A-D9899FE91DF1}" name="Total Max" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{7C2146AE-0FA2-490E-A979-F82977B2A392}" name="Bonus" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{186B9208-1B02-463B-927F-54C5F3F8ECA3}" name="Design and Analysis of Algorithms" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{5AF780C1-C46C-4238-A76A-BBE35D0DD3CE}" name="Quiz 1" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{C8A6FE4A-0A69-4C2A-A833-697D0B90F623}" name="Project" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{780FF1E4-AD54-4288-822A-14F698E383A9}" name="Total" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{B539CB65-6FBB-48BA-BF1A-D9899FE91DF1}" name="Total Max" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7C2146AE-0FA2-490E-A979-F82977B2A392}" name="Bonus" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B69:F70" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{75F94FF8-2D45-4A55-99D4-4ED627023AFA}" name="Advanced Methods for Multimedia" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{88705062-D7C8-46E8-AA95-DAA631863958}" name="Sec Projects" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{F9618B6F-2F74-440B-9CF9-C226705955DC}" name="Sec Projects Max" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{4A66F216-977C-4163-B8CE-EDD7CBF7203B}" name="Lec Projects" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{DFE53239-C42B-4445-B658-06DB1051C764}" name="Lec Projects Max" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{75F94FF8-2D45-4A55-99D4-4ED627023AFA}" name="Advanced Methods for Multimedia" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{88705062-D7C8-46E8-AA95-DAA631863958}" name="Sec Projects" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{F9618B6F-2F74-440B-9CF9-C226705955DC}" name="Sec Projects Max" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{4A66F216-977C-4163-B8CE-EDD7CBF7203B}" name="Lec Projects" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{DFE53239-C42B-4445-B658-06DB1051C764}" name="Lec Projects Max" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B73:F74" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A5601E5C-E375-40C5-97A4-E21B705AA075}" name="Intelligent Systems" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{2240AD9C-38F6-47C4-8BD5-EAEE10C04068}" name="Assignment" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{A14BA645-2253-4B09-B74C-057576947793}" name="Project" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{BDAE3480-C7EC-4F7C-878D-4C50E6262734}" name="Total" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{6C410047-0482-4545-9881-9931EE4C7F26}" name="Total Max" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{A5601E5C-E375-40C5-97A4-E21B705AA075}" name="Intelligent Systems" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{2240AD9C-38F6-47C4-8BD5-EAEE10C04068}" name="Assignment" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{A14BA645-2253-4B09-B74C-057576947793}" name="Project" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BDAE3480-C7EC-4F7C-878D-4C50E6262734}" name="Total" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{6C410047-0482-4545-9881-9931EE4C7F26}" name="Total Max" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B77:G78" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD37413B-4A28-483D-9B6C-CA2468F72F8B}" name="Large-Scale Database" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8ACAF496-83AE-4577-8105-E7F2D418F493}" name="Project 1" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{0AFE68A8-52C8-4747-BB8A-3B1C38E2BD7D}" name="Project 2" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1BD72070-2E8A-4BBA-A175-C20D83CE3B45}" name="Assignment" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EE08EFA1-C67A-468D-8D2C-6693EA6A1EED}" name="Total" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{2726B104-3C2D-4D50-852A-49C52478DDCE}" name="Total Max" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BD37413B-4A28-483D-9B6C-CA2468F72F8B}" name="Large-Scale Database" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8ACAF496-83AE-4577-8105-E7F2D418F493}" name="Project 1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0AFE68A8-52C8-4747-BB8A-3B1C38E2BD7D}" name="Project 2" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1BD72070-2E8A-4BBA-A175-C20D83CE3B45}" name="Assignment" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EE08EFA1-C67A-468D-8D2C-6693EA6A1EED}" name="Total" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2726B104-3C2D-4D50-852A-49C52478DDCE}" name="Total Max" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3971,8 +3974,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4905,7 +4908,9 @@
       <c r="E58" s="8">
         <v>20</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="8">
+        <v>31.2</v>
+      </c>
       <c r="G58" s="8">
         <v>40</v>
       </c>
@@ -4928,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="F59" s="8">
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="G59" s="8">
         <v>30</v>
@@ -4989,7 +4994,9 @@
       <c r="E62" s="8">
         <v>20</v>
       </c>
-      <c r="F62" s="8"/>
+      <c r="F62" s="8">
+        <v>26</v>
+      </c>
       <c r="G62" s="8">
         <v>40</v>
       </c>
@@ -5029,8 +5036,12 @@
       <c r="C64" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="D64" s="8">
+        <v>13</v>
+      </c>
+      <c r="E64" s="8">
+        <v>20</v>
+      </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8">
         <v>40</v>
@@ -5089,8 +5100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5784,34 +5795,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C85" s="31"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C85" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B86" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="25"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C86" s="25">
+        <v>20</v>
+      </c>
+      <c r="D86" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B89" s="30" t="s">
         <v>153</v>
       </c>
@@ -5819,10 +5840,16 @@
         <v>138</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B90" s="32" t="s">
         <v>63</v>
       </c>
@@ -5832,25 +5859,31 @@
       <c r="D90" s="32">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90" s="32">
+        <v>4.5</v>
+      </c>
+      <c r="F90" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C93" s="31"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B94" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C94" s="25"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>151</v>
       </c>
@@ -5876,13 +5909,23 @@
       <c r="B101" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="31"/>
+      <c r="C101" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B102" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="25"/>
+      <c r="C102" s="25">
+        <v>10</v>
+      </c>
+      <c r="D102" s="25">
+        <v>10</v>
+      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
@@ -5932,13 +5975,23 @@
       <c r="B109" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C109" s="31"/>
+      <c r="C109" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B110" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C110" s="25"/>
+      <c r="C110" s="25">
+        <v>18.5</v>
+      </c>
+      <c r="D110" s="25">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F2D76-A6F7-482C-A66C-498186679784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD14596-8092-4F5B-BE50-A9A4167B108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -3974,8 +3974,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4949,9 +4949,15 @@
       <c r="C60" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="D60" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="E60" s="8">
+        <v>20</v>
+      </c>
+      <c r="F60" s="8">
+        <v>18.5</v>
+      </c>
       <c r="G60" s="8">
         <v>40</v>
       </c>
@@ -4998,7 +5004,7 @@
         <v>26</v>
       </c>
       <c r="G62" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H62" s="21"/>
     </row>
@@ -5100,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="A93" zoomScale="113" workbookViewId="0">
       <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
@@ -6069,23 +6075,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6223,31 +6212,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6263,4 +6245,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD14596-8092-4F5B-BE50-A9A4167B108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C067D8-4713-4CF3-9B00-FA831DD35A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -3975,7 +3975,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4950,13 +4950,13 @@
         <v>150</v>
       </c>
       <c r="D60" s="8">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="E60" s="8">
         <v>20</v>
       </c>
       <c r="F60" s="8">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="G60" s="8">
         <v>40</v>
@@ -6075,6 +6075,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6212,24 +6229,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6245,28 +6269,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C067D8-4713-4CF3-9B00-FA831DD35A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D88B0A-C311-46B4-8AE7-3B9FAA036D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="174">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -567,13 +567,22 @@
     <t>Assignment2</t>
   </si>
   <si>
-    <t>Assignment2 Max</t>
-  </si>
-  <si>
     <t>Project Max</t>
   </si>
   <si>
     <t>ReportMax</t>
+  </si>
+  <si>
+    <t>Assignment3 Max</t>
+  </si>
+  <si>
+    <t>Attendance Max</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Presentation Max</t>
   </si>
 </sst>
 </file>
@@ -3975,7 +3984,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5025,7 +5034,7 @@
         <v>25</v>
       </c>
       <c r="F63" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G63" s="8">
         <v>40</v>
@@ -5048,7 +5057,9 @@
       <c r="E64" s="8">
         <v>20</v>
       </c>
-      <c r="F64" s="8"/>
+      <c r="F64" s="8">
+        <v>32</v>
+      </c>
       <c r="G64" s="8">
         <v>40</v>
       </c>
@@ -5104,10 +5115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView topLeftCell="A93" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5120,7 +5131,11 @@
     <col min="6" max="6" width="17.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="15.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5819,7 +5834,7 @@
         <v>42</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5894,24 +5909,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B97" s="30" t="s">
         <v>151</v>
       </c>
       <c r="C97" s="31"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B98" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C98" s="25"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B101" s="30" t="s">
         <v>155</v>
       </c>
@@ -5919,10 +5934,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B102" s="32" t="s">
         <v>63</v>
       </c>
@@ -5933,12 +5948,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B105" s="30" t="s">
         <v>156</v>
       </c>
@@ -5952,10 +5967,28 @@
         <v>167</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H105" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I105" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J105" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K105" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="L105" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B106" s="32" t="s">
         <v>63</v>
       </c>
@@ -5969,15 +6002,33 @@
         <v>2.5</v>
       </c>
       <c r="F106" s="25">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="25">
+        <v>1</v>
+      </c>
+      <c r="H106" s="25">
+        <v>5</v>
+      </c>
+      <c r="I106" s="25">
+        <v>5</v>
+      </c>
+      <c r="J106" s="25">
+        <v>5</v>
+      </c>
+      <c r="K106" s="25">
+        <v>5</v>
+      </c>
+      <c r="L106" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B109" s="30" t="s">
         <v>157</v>
       </c>
@@ -5985,10 +6036,10 @@
         <v>42</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B110" s="32" t="s">
         <v>63</v>
       </c>
@@ -6075,23 +6126,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6229,31 +6263,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6269,4 +6296,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D88B0A-C311-46B4-8AE7-3B9FAA036D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95752628-E0F1-47CF-B0E5-7130259F9533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="175">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>Presentation Max</t>
+  </si>
+  <si>
+    <t>Quiz Max</t>
   </si>
 </sst>
 </file>
@@ -3984,7 +3987,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4987,7 +4990,9 @@
       <c r="E61" s="8">
         <v>20</v>
       </c>
-      <c r="F61" s="8"/>
+      <c r="F61" s="8">
+        <v>39</v>
+      </c>
       <c r="G61" s="8">
         <v>40</v>
       </c>
@@ -5118,7 +5123,7 @@
   <dimension ref="A1:L110"/>
   <sheetViews>
     <sheetView topLeftCell="A93" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K103" sqref="K103"/>
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5913,13 +5918,35 @@
       <c r="B97" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="C97" s="31"/>
+      <c r="C97" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F97" s="31" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B98" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C98" s="25"/>
+      <c r="C98" s="25">
+        <v>10</v>
+      </c>
+      <c r="D98" s="25">
+        <v>10</v>
+      </c>
+      <c r="E98" s="25">
+        <v>10</v>
+      </c>
+      <c r="F98" s="25">
+        <v>10</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
@@ -6126,6 +6153,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6263,24 +6307,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6296,28 +6347,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95752628-E0F1-47CF-B0E5-7130259F9533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376245EE-D7F5-47BB-9417-834FEC1DBA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="179">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -586,6 +586,18 @@
   </si>
   <si>
     <t>Quiz Max</t>
+  </si>
+  <si>
+    <t>Task1</t>
+  </si>
+  <si>
+    <t>Task2</t>
+  </si>
+  <si>
+    <t>Task1 Max</t>
+  </si>
+  <si>
+    <t>Task2 Max</t>
   </si>
 </sst>
 </file>
@@ -3987,7 +3999,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4968,7 +4980,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="8">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G60" s="8">
         <v>40</v>
@@ -5122,8 +5134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView topLeftCell="A88" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5821,17 +5833,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B85" s="30" t="s">
         <v>154</v>
       </c>
@@ -5842,7 +5854,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="32" t="s">
         <v>63</v>
       </c>
@@ -5853,12 +5865,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B89" s="30" t="s">
         <v>153</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B90" s="32" t="s">
         <v>63</v>
       </c>
@@ -5892,24 +5904,58 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B93" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="31"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G93" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H93" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B94" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C94" s="25"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="25">
+        <v>9</v>
+      </c>
+      <c r="D94" s="25">
+        <v>10</v>
+      </c>
+      <c r="E94" s="25">
+        <v>9</v>
+      </c>
+      <c r="F94" s="25">
+        <v>10</v>
+      </c>
+      <c r="G94" s="25">
+        <v>10</v>
+      </c>
+      <c r="H94" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>151</v>
       </c>
@@ -6153,23 +6199,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6307,31 +6336,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6347,4 +6369,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376245EE-D7F5-47BB-9417-834FEC1DBA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F2AAF-39C3-46E7-8ADE-C4B2693E4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="179">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -879,6 +879,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -3998,8 +3999,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4758,7 +4759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>72</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>72</v>
       </c>
@@ -4836,7 +4837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>72</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>72</v>
       </c>
@@ -4888,12 +4889,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>1</v>
       </c>
@@ -4915,8 +4916,17 @@
       <c r="H57" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="3">
+        <v>3.2044000000000001</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>72</v>
       </c>
@@ -4938,9 +4948,20 @@
       <c r="G58" s="8">
         <v>40</v>
       </c>
-      <c r="H58" s="21"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H58" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3.2784</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>72</v>
       </c>
@@ -4962,8 +4983,11 @@
       <c r="G59" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H59" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>72</v>
       </c>
@@ -4985,8 +5009,11 @@
       <c r="G60" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>72</v>
       </c>
@@ -5008,9 +5035,11 @@
       <c r="G61" s="8">
         <v>40</v>
       </c>
-      <c r="H61" s="21"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>72</v>
       </c>
@@ -5032,9 +5061,11 @@
       <c r="G62" s="8">
         <v>30</v>
       </c>
-      <c r="H62" s="21"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H62" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>72</v>
       </c>
@@ -5056,9 +5087,11 @@
       <c r="G63" s="8">
         <v>40</v>
       </c>
-      <c r="H63" s="21"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H63" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>72</v>
       </c>
@@ -5080,7 +5113,9 @@
       <c r="G64" s="8">
         <v>40</v>
       </c>
-      <c r="H64" s="8"/>
+      <c r="H64" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6199,6 +6234,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6336,24 +6388,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6369,28 +6428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F2AAF-39C3-46E7-8ADE-C4B2693E4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A6FEC1-2698-4553-9A8F-19E16FDA3C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="187">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -546,9 +546,6 @@
     <t>College Track</t>
   </si>
   <si>
-    <t>Maths Degree</t>
-  </si>
-  <si>
     <t>Total Credit Hours</t>
   </si>
   <si>
@@ -598,6 +595,33 @@
   </si>
   <si>
     <t>Task2 Max</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>History of Science</t>
+  </si>
+  <si>
+    <t>Computer Graphics</t>
+  </si>
+  <si>
+    <t>Software Analysis and Verification</t>
+  </si>
+  <si>
+    <t>System Simulation and Modeling</t>
+  </si>
+  <si>
+    <t>Project I</t>
+  </si>
+  <si>
+    <t>&gt;60CH</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Maths Department</t>
   </si>
 </sst>
 </file>
@@ -876,17 +900,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="253">
+  <dxfs count="278">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1313,6 +1337,47 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1805,6 +1870,59 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0000000"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2002,70 +2120,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC8BBAC2-F974-41EE-A33B-D9728D1FB776}" name="Table1" displayName="Table1" ref="B4:H12" totalsRowShown="0" headerRowDxfId="252" dataDxfId="251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EC8BBAC2-F974-41EE-A33B-D9728D1FB776}" name="Table1" displayName="Table1" ref="B4:H12" totalsRowShown="0" headerRowDxfId="277" dataDxfId="276">
   <autoFilter ref="B4:H12" xr:uid="{EC8BBAC2-F974-41EE-A33B-D9728D1FB776}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{63F333E7-F6E7-4DF2-9487-C123CB920E95}" name="C. No" dataDxfId="250"/>
-    <tableColumn id="9" xr3:uid="{F38EB66C-1B09-4660-BFC2-9DB78AF36267}" name="Course Name" dataDxfId="249"/>
-    <tableColumn id="15" xr3:uid="{12EB338E-68DD-4BC0-95B6-BCEDDA4E9521}" name="Pre-Requisite" dataDxfId="248"/>
-    <tableColumn id="10" xr3:uid="{E33BFB61-8B17-4729-87F1-6D2275CF5C92}" name="Course Code" dataDxfId="247"/>
-    <tableColumn id="11" xr3:uid="{756EBA51-EBAD-43CF-A483-1C218FFC4EBC}" name="Credit Hours" dataDxfId="246"/>
-    <tableColumn id="12" xr3:uid="{2076F066-C303-420A-8C33-F20C8697EE39}" name="Credit Hour Price" dataDxfId="245"/>
-    <tableColumn id="13" xr3:uid="{AC87CA98-BDD2-4601-8551-394BD3998015}" name="Course Price" dataDxfId="244"/>
+    <tableColumn id="8" xr3:uid="{63F333E7-F6E7-4DF2-9487-C123CB920E95}" name="C. No" dataDxfId="275"/>
+    <tableColumn id="9" xr3:uid="{F38EB66C-1B09-4660-BFC2-9DB78AF36267}" name="Course Name" dataDxfId="274"/>
+    <tableColumn id="15" xr3:uid="{12EB338E-68DD-4BC0-95B6-BCEDDA4E9521}" name="Pre-Requisite" dataDxfId="273"/>
+    <tableColumn id="10" xr3:uid="{E33BFB61-8B17-4729-87F1-6D2275CF5C92}" name="Course Code" dataDxfId="272"/>
+    <tableColumn id="11" xr3:uid="{756EBA51-EBAD-43CF-A483-1C218FFC4EBC}" name="Credit Hours" dataDxfId="271"/>
+    <tableColumn id="12" xr3:uid="{2076F066-C303-420A-8C33-F20C8697EE39}" name="Credit Hour Price" dataDxfId="270"/>
+    <tableColumn id="13" xr3:uid="{AC87CA98-BDD2-4601-8551-394BD3998015}" name="Course Price" dataDxfId="269"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}" name="Table616" displayName="Table616" ref="B37:F43" totalsRowShown="0" dataDxfId="139">
-  <autoFilter ref="B37:F43" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}" name="Table6" displayName="Table6" ref="B26:F33" totalsRowShown="0" dataDxfId="153">
+  <autoFilter ref="B26:F33" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4F82C258-BC76-45EB-AB03-0254FCD1BA9C}" name="S. No" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{1931576C-90BA-4965-A648-CB87B1A01E8B}" name="Course Name" dataDxfId="137"/>
-    <tableColumn id="6" xr3:uid="{08710819-4BB9-4191-AE7E-B6B02498EA38}" name="Midterm" dataDxfId="136"/>
-    <tableColumn id="7" xr3:uid="{8B347F23-C206-4753-B777-B4A4BE2F85A1}" name="Pre-Final" dataDxfId="135"/>
-    <tableColumn id="3" xr3:uid="{CF91586C-C31D-4CEC-AFD8-249AEAC0B6B5}" name="Final" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{28F8E7D6-B383-4600-A048-22F8C4AD82D6}" name="S. No" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{98B567B0-0A0B-437E-A58C-5F6D5BF775AD}" name="Course Name" dataDxfId="151"/>
+    <tableColumn id="6" xr3:uid="{BE62E445-155B-4DCE-9238-BB400FE31908}" name="Midterm" dataDxfId="150"/>
+    <tableColumn id="7" xr3:uid="{C3F1662F-2159-423B-907C-383464F612E9}" name="Pre-Final" dataDxfId="149"/>
+    <tableColumn id="3" xr3:uid="{176A7C21-7E63-40F2-B1DC-6AF4F5AA9C6A}" name="Final" dataDxfId="148"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}" name="Table61624" displayName="Table61624" ref="B47:H53" totalsRowShown="0" dataDxfId="133">
-  <autoFilter ref="B47:H53" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F0565AE4-0C5A-4BA4-81C1-C3BF63F38597}" name="S. No" dataDxfId="132"/>
-    <tableColumn id="2" xr3:uid="{70A028AD-DF2A-4E5E-9621-DA8238901B60}" name="Course Name" dataDxfId="131"/>
-    <tableColumn id="4" xr3:uid="{F4AC14A7-22C6-4923-9435-8AD07D827C2E}" name="Midterm" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{39F5F465-4349-4266-9CE6-EAD28560B5D5}" name="Midterm Max" dataDxfId="129"/>
-    <tableColumn id="5" xr3:uid="{0372BF70-7A21-4D25-B7A9-143A246B4128}" name="Pre-Final" dataDxfId="128">
-      <calculatedColumnFormula array="1">Table61624[[#This Row],[Midterm]]+Table1012172213[Total]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{6A531446-7626-4D12-95D3-566FCDECDE06}" name="Pre-Final Max" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{7023FDA4-15BC-44F7-9AAE-FFA2941DBFEA}" name="Final" dataDxfId="126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}" name="Table616" displayName="Table616" ref="B37:F43" totalsRowShown="0" dataDxfId="147">
+  <autoFilter ref="B37:F43" xr:uid="{DE3B1C29-A03B-46CD-A952-A7C9318DF265}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4F82C258-BC76-45EB-AB03-0254FCD1BA9C}" name="S. No" dataDxfId="146"/>
+    <tableColumn id="2" xr3:uid="{1931576C-90BA-4965-A648-CB87B1A01E8B}" name="Course Name" dataDxfId="145"/>
+    <tableColumn id="6" xr3:uid="{08710819-4BB9-4191-AE7E-B6B02498EA38}" name="Midterm" dataDxfId="144"/>
+    <tableColumn id="7" xr3:uid="{8B347F23-C206-4753-B777-B4A4BE2F85A1}" name="Pre-Final" dataDxfId="143"/>
+    <tableColumn id="3" xr3:uid="{CF91586C-C31D-4CEC-AFD8-249AEAC0B6B5}" name="Final" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}" name="Table6162430" displayName="Table6162430" ref="B57:H64" totalsRowShown="0" dataDxfId="125">
-  <autoFilter ref="B57:H64" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}" name="Table61624" displayName="Table61624" ref="B47:H53" totalsRowShown="0" dataDxfId="141">
+  <autoFilter ref="B47:H53" xr:uid="{A6024FA2-2C7E-4A52-B4CF-61F7EEC022F9}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{874C6CE1-BE37-4065-8A5B-CECA185231DD}" name="S. No" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{1A6EF9CF-36EA-4225-8EDC-59E8261EE8ED}" name="Course Name" dataDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{8DCECEC6-AF29-4448-A504-394C4F78710B}" name="Midterm" dataDxfId="122"/>
-    <tableColumn id="6" xr3:uid="{A777B523-E7AD-4B84-A6C4-E17D9A3BFEC2}" name="Midterm Max" dataDxfId="121"/>
-    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="120"/>
-    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{F0565AE4-0C5A-4BA4-81C1-C3BF63F38597}" name="S. No" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{70A028AD-DF2A-4E5E-9621-DA8238901B60}" name="Course Name" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{F4AC14A7-22C6-4923-9435-8AD07D827C2E}" name="Midterm" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{39F5F465-4349-4266-9CE6-EAD28560B5D5}" name="Midterm Max" dataDxfId="137"/>
+    <tableColumn id="5" xr3:uid="{0372BF70-7A21-4D25-B7A9-143A246B4128}" name="Pre-Final" dataDxfId="136">
+      <calculatedColumnFormula array="1">Table61624[[#This Row],[Midterm]]+Table1012172213[Total]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6A531446-7626-4D12-95D3-566FCDECDE06}" name="Pre-Final Max" dataDxfId="135"/>
+    <tableColumn id="3" xr3:uid="{7023FDA4-15BC-44F7-9AAE-FFA2941DBFEA}" name="Final" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}" name="Table6162430" displayName="Table6162430" ref="B57:H64" totalsRowShown="0" dataDxfId="133">
+  <autoFilter ref="B57:H64" xr:uid="{370E7FB4-8BC2-4CA7-AD18-062C08A5094F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{874C6CE1-BE37-4065-8A5B-CECA185231DD}" name="S. No" dataDxfId="132"/>
+    <tableColumn id="2" xr3:uid="{1A6EF9CF-36EA-4225-8EDC-59E8261EE8ED}" name="Course Name" dataDxfId="131"/>
+    <tableColumn id="4" xr3:uid="{8DCECEC6-AF29-4448-A504-394C4F78710B}" name="Midterm" dataDxfId="130"/>
+    <tableColumn id="6" xr3:uid="{A777B523-E7AD-4B84-A6C4-E17D9A3BFEC2}" name="Midterm Max" dataDxfId="129"/>
+    <tableColumn id="5" xr3:uid="{7AB0F2C2-2B49-45C4-A8FE-2C45A511D90E}" name="Pre-Final" dataDxfId="128"/>
+    <tableColumn id="7" xr3:uid="{7ECD9B0F-32A7-4470-9AE8-F31CD77EEF31}" name="Pre-Final Max" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{3FB56E3B-E7C4-45EC-843B-E1B1C506C2C2}" name="Final" dataDxfId="126"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{9F1265F9-AB4C-4B22-AFB0-990D7FB11370}" name="Table6162432" displayName="Table6162432" ref="B68:H74" totalsRowShown="0" dataDxfId="125">
+  <autoFilter ref="B68:H74" xr:uid="{9F1265F9-AB4C-4B22-AFB0-990D7FB11370}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{664F5CDF-4D5A-4AB9-B0DF-D46C4C6C47DB}" name="S. No" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{5D5952DD-D5D0-48D8-A09A-5C3787458452}" name="Course Name" dataDxfId="123"/>
+    <tableColumn id="4" xr3:uid="{800C8597-AB8E-4449-AAE2-D7F96AE010DD}" name="Midterm" dataDxfId="122"/>
+    <tableColumn id="6" xr3:uid="{0667FBFF-BCB5-4FDD-95B4-B91507465F57}" name="Midterm Max" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{52418EF3-8193-4EB3-90FB-02AE47ECB9EE}" name="Pre-Final" dataDxfId="120"/>
+    <tableColumn id="7" xr3:uid="{120A9349-EEB9-4906-9E72-9E47824D513B}" name="Pre-Final Max" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{2ED418C5-DB56-49D5-ABE8-E141913E6CCD}" name="Final" dataDxfId="118"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}" name="Table8" displayName="Table8" ref="B5:I6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B5:I6" xr:uid="{EFA08C7C-68AF-4708-93FB-8A290D3CB387}"/>
   <tableColumns count="8">
@@ -2082,7 +2230,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}" name="Table9" displayName="Table9" ref="B9:F10" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B9:F10" xr:uid="{942B0E4B-DB7B-46E3-AC4A-31C65CC8220C}"/>
   <tableColumns count="5">
@@ -2096,7 +2244,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}" name="Table10" displayName="Table10" ref="B13:C14" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99">
   <autoFilter ref="B13:C14" xr:uid="{EE574216-6034-48AC-935F-4B51B28B2F02}"/>
   <tableColumns count="2">
@@ -2107,7 +2255,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}" name="Table1012" displayName="Table1012" ref="B17:C18" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
   <autoFilter ref="B17:C18" xr:uid="{3F774BB9-9658-4138-A855-7BD586FAC1E9}"/>
   <tableColumns count="2">
@@ -2118,7 +2266,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}" name="Table10121314" displayName="Table10121314" ref="B21:F22" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="B21:F22" xr:uid="{205B07DD-0913-424E-A634-CD0EC5EED651}"/>
   <tableColumns count="5">
@@ -2132,7 +2280,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCE949A3-1104-4EE3-8974-CAF899620CD7}" name="Table13" displayName="Table13" ref="B15:H23" totalsRowCount="1" headerRowDxfId="268" dataDxfId="267" totalsRowDxfId="266">
+  <autoFilter ref="B15:H22" xr:uid="{DCE949A3-1104-4EE3-8974-CAF899620CD7}"/>
+  <tableColumns count="7">
+    <tableColumn id="8" xr3:uid="{1863A1F8-44C1-4DCA-BD68-EBFB7384951C}" name="C. No" dataDxfId="265" totalsRowDxfId="264"/>
+    <tableColumn id="9" xr3:uid="{5D3BC791-397A-48D3-BFA5-BBBC1A2A7907}" name="Course Name" dataDxfId="263" totalsRowDxfId="262"/>
+    <tableColumn id="15" xr3:uid="{453A42BC-A072-42B3-8A09-4E6B76DEDCED}" name="Pre-Requisite" dataDxfId="261" totalsRowDxfId="260"/>
+    <tableColumn id="10" xr3:uid="{1700FAE5-8654-46A4-A039-AFBE529992BE}" name="Course Code" dataDxfId="259" totalsRowDxfId="258"/>
+    <tableColumn id="11" xr3:uid="{172877EC-7A8C-4D10-8BC7-342C3D021671}" name="Credit Hours" dataDxfId="257" totalsRowDxfId="256"/>
+    <tableColumn id="12" xr3:uid="{7E6011B4-7A10-4A16-9E75-C91E0A9DED0C}" name="Credit Hour Price" dataDxfId="255" totalsRowDxfId="254"/>
+    <tableColumn id="13" xr3:uid="{920FA2B5-9D44-44C3-BEDA-BA8CE63644C3}" name="Course Price" totalsRowFunction="sum" dataDxfId="253" totalsRowDxfId="252"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}" name="Table101217" displayName="Table101217" ref="B29:E30" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="B29:E30" xr:uid="{B4CCA43B-54CF-4907-BD43-87DB602F91D9}"/>
   <tableColumns count="4">
@@ -2145,7 +2309,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}" name="Table10121718" displayName="Table10121718" ref="B33:D34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="B33:D34" xr:uid="{18085C60-6932-4B11-8EB0-1CD628F08C0F}"/>
   <tableColumns count="3">
@@ -2157,23 +2321,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCE949A3-1104-4EE3-8974-CAF899620CD7}" name="Table13" displayName="Table13" ref="B15:H23" totalsRowCount="1" headerRowDxfId="243" dataDxfId="242" totalsRowDxfId="241">
-  <autoFilter ref="B15:H22" xr:uid="{DCE949A3-1104-4EE3-8974-CAF899620CD7}"/>
-  <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{1863A1F8-44C1-4DCA-BD68-EBFB7384951C}" name="C. No" dataDxfId="240" totalsRowDxfId="239"/>
-    <tableColumn id="9" xr3:uid="{5D3BC791-397A-48D3-BFA5-BBBC1A2A7907}" name="Course Name" dataDxfId="238" totalsRowDxfId="237"/>
-    <tableColumn id="15" xr3:uid="{453A42BC-A072-42B3-8A09-4E6B76DEDCED}" name="Pre-Requisite" dataDxfId="236" totalsRowDxfId="235"/>
-    <tableColumn id="10" xr3:uid="{1700FAE5-8654-46A4-A039-AFBE529992BE}" name="Course Code" dataDxfId="234" totalsRowDxfId="233"/>
-    <tableColumn id="11" xr3:uid="{172877EC-7A8C-4D10-8BC7-342C3D021671}" name="Credit Hours" dataDxfId="232" totalsRowDxfId="231"/>
-    <tableColumn id="12" xr3:uid="{7E6011B4-7A10-4A16-9E75-C91E0A9DED0C}" name="Credit Hour Price" dataDxfId="230" totalsRowDxfId="229"/>
-    <tableColumn id="13" xr3:uid="{920FA2B5-9D44-44C3-BEDA-BA8CE63644C3}" name="Course Price" totalsRowFunction="sum" dataDxfId="228" totalsRowDxfId="227"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}" name="Table10121719" displayName="Table10121719" ref="B37:G38" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="B37:G38" xr:uid="{EEF6F50E-25FF-40F6-81C5-73210378FB38}"/>
   <tableColumns count="6">
@@ -2188,7 +2336,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}" name="Table10121720" displayName="Table10121720" ref="B41:E42" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B41:E42" xr:uid="{65C1972D-B50E-43C0-802E-2C46885C0F00}"/>
   <tableColumns count="4">
@@ -2201,7 +2349,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}" name="Table10121721" displayName="Table10121721" ref="B45:G46" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B45:G46" xr:uid="{0C386865-EF18-4181-8C7E-093B513259C4}"/>
   <tableColumns count="6">
@@ -2216,7 +2364,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}" name="Table10121722" displayName="Table10121722" ref="B49:C50" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="B49:C50" xr:uid="{7E679E8C-B166-4F68-9A53-21A0412D5E9D}"/>
   <tableColumns count="2">
@@ -2227,7 +2375,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}" name="Table1012172213" displayName="Table1012172213" ref="B57:H58" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="B57:H58" xr:uid="{2E8EFB19-CC52-4A38-A549-4773A4038088}"/>
   <tableColumns count="7">
@@ -2245,7 +2393,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}" name="Table101217221325" displayName="Table101217221325" ref="B61:I62" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B61:I62" xr:uid="{2207AA88-EE36-4624-A88E-6569E03C562E}"/>
   <tableColumns count="8">
@@ -2262,7 +2410,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}" name="Table101217221326" displayName="Table101217221326" ref="B65:G66" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B65:G66" xr:uid="{7EFEDB9D-732D-4630-8B03-7AFFC1AD7F0B}"/>
   <tableColumns count="6">
@@ -2277,7 +2425,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}" name="Table101217221327" displayName="Table101217221327" ref="B69:F70" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B69:F70" xr:uid="{DF7A8B39-9473-409F-BE6D-5CDCF065FCC9}"/>
   <tableColumns count="5">
@@ -2291,7 +2439,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}" name="Table136" displayName="Table136" ref="B26:H34" totalsRowCount="1" headerRowDxfId="251" dataDxfId="250" totalsRowDxfId="249">
+  <autoFilter ref="B26:H33" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}"/>
+  <tableColumns count="7">
+    <tableColumn id="8" xr3:uid="{80F5D784-25D0-41BF-B665-68DCCFC51EFF}" name="C. No" dataDxfId="248" totalsRowDxfId="247"/>
+    <tableColumn id="9" xr3:uid="{2B5580DF-E177-43F7-9479-7A8138AF1CE6}" name="Course Name" dataDxfId="246" totalsRowDxfId="245"/>
+    <tableColumn id="15" xr3:uid="{8ACB0870-3619-477D-A7D2-AA574B94DBD4}" name="Pre-Requisite" dataDxfId="244" totalsRowDxfId="243"/>
+    <tableColumn id="10" xr3:uid="{659372D5-C9CC-41E8-9569-93511561BC00}" name="Course Code" dataDxfId="242" totalsRowDxfId="241"/>
+    <tableColumn id="11" xr3:uid="{D56AECAB-5A16-435D-81B5-609A7D36AEBE}" name="Credit Hours" dataDxfId="240" totalsRowDxfId="239"/>
+    <tableColumn id="12" xr3:uid="{A1C5E82C-5836-4124-92EB-9BAFA5AF7757}" name="Credit Hour Price" dataDxfId="238" totalsRowDxfId="237"/>
+    <tableColumn id="13" xr3:uid="{5CF1FF64-9BF4-434F-8529-F1D78945F6AA}" name="Course Price" totalsRowFunction="sum" dataDxfId="236" totalsRowDxfId="235">
+      <calculatedColumnFormula array="1">MMULT(F27,G27)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}" name="Table101217221328" displayName="Table101217221328" ref="B73:F74" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="B73:F74" xr:uid="{87AD0100-11F5-4429-A381-85314D0234F0}"/>
   <tableColumns count="5">
@@ -2305,7 +2471,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}" name="Table101217221329" displayName="Table101217221329" ref="B77:G78" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="B77:G78" xr:uid="{2D7EAD71-4C91-43A3-A932-172CEEA55492}"/>
   <tableColumns count="6">
@@ -2320,35 +2486,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}" name="Table136" displayName="Table136" ref="B26:H34" totalsRowCount="1" headerRowDxfId="226" dataDxfId="225" totalsRowDxfId="224">
-  <autoFilter ref="B26:H33" xr:uid="{44CB78D9-9928-43D4-80DA-A73A09C1C177}"/>
-  <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{80F5D784-25D0-41BF-B665-68DCCFC51EFF}" name="C. No" dataDxfId="223" totalsRowDxfId="222"/>
-    <tableColumn id="9" xr3:uid="{2B5580DF-E177-43F7-9479-7A8138AF1CE6}" name="Course Name" dataDxfId="221" totalsRowDxfId="220"/>
-    <tableColumn id="15" xr3:uid="{8ACB0870-3619-477D-A7D2-AA574B94DBD4}" name="Pre-Requisite" dataDxfId="219" totalsRowDxfId="218"/>
-    <tableColumn id="10" xr3:uid="{659372D5-C9CC-41E8-9569-93511561BC00}" name="Course Code" dataDxfId="217" totalsRowDxfId="216"/>
-    <tableColumn id="11" xr3:uid="{D56AECAB-5A16-435D-81B5-609A7D36AEBE}" name="Credit Hours" dataDxfId="215" totalsRowDxfId="214"/>
-    <tableColumn id="12" xr3:uid="{A1C5E82C-5836-4124-92EB-9BAFA5AF7757}" name="Credit Hour Price" dataDxfId="213" totalsRowDxfId="212"/>
-    <tableColumn id="13" xr3:uid="{5CF1FF64-9BF4-434F-8529-F1D78945F6AA}" name="Course Price" totalsRowFunction="sum" dataDxfId="211" totalsRowDxfId="210">
-      <calculatedColumnFormula array="1">MMULT(F27,G27)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D4355C40-4E02-42F5-988D-4A5436A373D3}" name="Table14" displayName="Table14" ref="B37:H44" totalsRowCount="1" headerRowDxfId="209" dataDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D4355C40-4E02-42F5-988D-4A5436A373D3}" name="Table14" displayName="Table14" ref="B37:H44" totalsRowCount="1" headerRowDxfId="234" dataDxfId="233">
   <autoFilter ref="B37:H43" xr:uid="{D4355C40-4E02-42F5-988D-4A5436A373D3}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E26A93C8-AE4E-414C-8609-4626D90048C7}" name="C. No" dataDxfId="207" totalsRowDxfId="206"/>
-    <tableColumn id="2" xr3:uid="{B98BD1A5-2AC7-4419-A1C4-41F460F6882C}" name="Course Name" dataDxfId="205" totalsRowDxfId="204"/>
-    <tableColumn id="3" xr3:uid="{D7ED69CE-3C3D-4DB9-AD04-D42ED613A7BE}" name="Pre-Requisite" dataDxfId="203" totalsRowDxfId="202"/>
-    <tableColumn id="4" xr3:uid="{9BD71A3A-3CD2-4155-8514-F83ED01B2573}" name="Course Code" dataDxfId="201" totalsRowDxfId="200"/>
-    <tableColumn id="5" xr3:uid="{2C63F556-3497-4C45-8DD5-70C18A6C1647}" name="Credit Hours" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{70C2C24E-CD3A-4255-B224-83BFBEC60F16}" name="Credit Hour Price" dataDxfId="197" totalsRowDxfId="196"/>
-    <tableColumn id="7" xr3:uid="{AAA5AB50-4647-403F-81FB-0DC834CB70A6}" name="Course Price" totalsRowFunction="custom" dataDxfId="195" totalsRowDxfId="194">
+    <tableColumn id="1" xr3:uid="{E26A93C8-AE4E-414C-8609-4626D90048C7}" name="C. No" dataDxfId="232" totalsRowDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{B98BD1A5-2AC7-4419-A1C4-41F460F6882C}" name="Course Name" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="3" xr3:uid="{D7ED69CE-3C3D-4DB9-AD04-D42ED613A7BE}" name="Pre-Requisite" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="4" xr3:uid="{9BD71A3A-3CD2-4155-8514-F83ED01B2573}" name="Course Code" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="5" xr3:uid="{2C63F556-3497-4C45-8DD5-70C18A6C1647}" name="Credit Hours" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="6" xr3:uid="{70C2C24E-CD3A-4255-B224-83BFBEC60F16}" name="Credit Hour Price" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="7" xr3:uid="{AAA5AB50-4647-403F-81FB-0DC834CB70A6}" name="Course Price" totalsRowFunction="custom" dataDxfId="220" totalsRowDxfId="219">
       <calculatedColumnFormula array="1">MMULT(Table14[[#This Row],[Credit Hours]],Table14[[#This Row],[Credit Hour Price]])</calculatedColumnFormula>
       <totalsRowFormula>SUBTOTAL(109, Table14[Course Price])</totalsRowFormula>
     </tableColumn>
@@ -2358,16 +2506,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5BF30FC0-0DED-469F-97BB-4489B34E0B57}" name="Table1368" displayName="Table1368" ref="B47:H54" totalsRowCount="1" headerRowDxfId="193" dataDxfId="192" totalsRowDxfId="191">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5BF30FC0-0DED-469F-97BB-4489B34E0B57}" name="Table1368" displayName="Table1368" ref="B47:H54" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217" totalsRowDxfId="216">
   <autoFilter ref="B47:H53" xr:uid="{5BF30FC0-0DED-469F-97BB-4489B34E0B57}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{B64828CC-70B6-481E-8751-040DCF13806C}" name="C. No" dataDxfId="190" totalsRowDxfId="189"/>
-    <tableColumn id="9" xr3:uid="{517C09CB-5A48-4E23-B313-E12769E4DC0D}" name="Course Name" dataDxfId="188" totalsRowDxfId="187"/>
-    <tableColumn id="15" xr3:uid="{53AA2425-9B1D-4591-967B-465C4326D099}" name="Pre-Requisite" dataDxfId="186" totalsRowDxfId="185"/>
-    <tableColumn id="10" xr3:uid="{578A44FF-83C6-47CA-8B00-60A563C3EEF0}" name="Course Code" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="11" xr3:uid="{D9C7FA6F-EAA5-4DE5-8954-FA3BE0F4B246}" name="Credit Hours" dataDxfId="182" totalsRowDxfId="181"/>
-    <tableColumn id="12" xr3:uid="{990CB230-10C5-486C-B992-EB264F34C368}" name="Credit Hour Price" dataDxfId="180" totalsRowDxfId="179"/>
-    <tableColumn id="13" xr3:uid="{C0CAE4D3-081F-4843-87AB-C9EF38854009}" name="Course Price" totalsRowFunction="sum" dataDxfId="178" totalsRowDxfId="177">
+    <tableColumn id="8" xr3:uid="{B64828CC-70B6-481E-8751-040DCF13806C}" name="C. No" dataDxfId="215" totalsRowDxfId="214"/>
+    <tableColumn id="9" xr3:uid="{517C09CB-5A48-4E23-B313-E12769E4DC0D}" name="Course Name" dataDxfId="213" totalsRowDxfId="212"/>
+    <tableColumn id="15" xr3:uid="{53AA2425-9B1D-4591-967B-465C4326D099}" name="Pre-Requisite" dataDxfId="211" totalsRowDxfId="210"/>
+    <tableColumn id="10" xr3:uid="{578A44FF-83C6-47CA-8B00-60A563C3EEF0}" name="Course Code" dataDxfId="209" totalsRowDxfId="208"/>
+    <tableColumn id="11" xr3:uid="{D9C7FA6F-EAA5-4DE5-8954-FA3BE0F4B246}" name="Credit Hours" dataDxfId="207" totalsRowDxfId="206"/>
+    <tableColumn id="12" xr3:uid="{990CB230-10C5-486C-B992-EB264F34C368}" name="Credit Hour Price" dataDxfId="205" totalsRowDxfId="204"/>
+    <tableColumn id="13" xr3:uid="{C0CAE4D3-081F-4843-87AB-C9EF38854009}" name="Course Price" totalsRowFunction="sum" dataDxfId="203" totalsRowDxfId="202">
       <calculatedColumnFormula array="1">MMULT(F48,G48)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2376,16 +2524,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{225A79AA-1E6C-4A25-843E-BF1C506DE0BB}" name="Table136823" displayName="Table136823" ref="B57:H65" totalsRowCount="1" headerRowDxfId="176" dataDxfId="175" totalsRowDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{225A79AA-1E6C-4A25-843E-BF1C506DE0BB}" name="Table136823" displayName="Table136823" ref="B57:H65" totalsRowCount="1" headerRowDxfId="201" dataDxfId="200" totalsRowDxfId="199">
   <autoFilter ref="B57:H64" xr:uid="{225A79AA-1E6C-4A25-843E-BF1C506DE0BB}"/>
   <tableColumns count="7">
-    <tableColumn id="8" xr3:uid="{9E17818D-FB4E-4444-8590-E7CF360518AF}" name="C. No" dataDxfId="173" totalsRowDxfId="172"/>
-    <tableColumn id="9" xr3:uid="{5428B2D8-86E9-43F1-AAE5-8F72ECE9F637}" name="Course Name" dataDxfId="171" totalsRowDxfId="170"/>
-    <tableColumn id="15" xr3:uid="{4815685E-33A4-4920-AA6A-B7C0DF7839BD}" name="Pre-Requisite" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="10" xr3:uid="{9D5102A6-5623-47CE-B2F1-46B015CBEA1F}" name="Course Code" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="11" xr3:uid="{6FD41B09-EE2D-48E9-B293-6EDB777171FC}" name="Credit Hours" dataDxfId="165" totalsRowDxfId="164"/>
-    <tableColumn id="12" xr3:uid="{657345A1-4DB2-429D-A3FB-A24319E3C23F}" name="Credit Hour Price" dataDxfId="163" totalsRowDxfId="162"/>
-    <tableColumn id="13" xr3:uid="{2E889CCC-7B1F-4A1F-AC7D-A2647F18ACAB}" name="Course Price" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="160">
+    <tableColumn id="8" xr3:uid="{9E17818D-FB4E-4444-8590-E7CF360518AF}" name="C. No" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="9" xr3:uid="{5428B2D8-86E9-43F1-AAE5-8F72ECE9F637}" name="Course Name" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="15" xr3:uid="{4815685E-33A4-4920-AA6A-B7C0DF7839BD}" name="Pre-Requisite" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="10" xr3:uid="{9D5102A6-5623-47CE-B2F1-46B015CBEA1F}" name="Course Code" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="11" xr3:uid="{6FD41B09-EE2D-48E9-B293-6EDB777171FC}" name="Credit Hours" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="12" xr3:uid="{657345A1-4DB2-429D-A3FB-A24319E3C23F}" name="Credit Hour Price" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="13" xr3:uid="{2E889CCC-7B1F-4A1F-AC7D-A2647F18ACAB}" name="Course Price" totalsRowFunction="sum" dataDxfId="186" totalsRowDxfId="185">
       <calculatedColumnFormula array="1">MMULT(F58,G58)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2394,44 +2542,48 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}" name="Table3" displayName="Table3" ref="B4:F11" totalsRowShown="0" dataDxfId="159">
-  <autoFilter ref="B4:F11" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{47BB9116-96B6-4659-B8C9-6763DFE5D1EB}" name="S. No" dataDxfId="158"/>
-    <tableColumn id="2" xr3:uid="{2B8CF846-525A-49A3-A6F6-814996D28C49}" name="Course Name" dataDxfId="157"/>
-    <tableColumn id="3" xr3:uid="{B231F6C5-4575-494A-8370-72E0D3EDCBDC}" name="Midterm" dataDxfId="156"/>
-    <tableColumn id="4" xr3:uid="{D6654B14-A53B-4F5A-9499-ECE1E8712304}" name="Pre-Final" dataDxfId="155"/>
-    <tableColumn id="5" xr3:uid="{EAE2A77F-EEAE-4EFE-9A61-3E4A9E141D71}" name="Final" dataDxfId="154"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{DEE2F87F-3551-4DE0-8BF1-90791BE9A6FB}" name="Table136831" displayName="Table136831" ref="B68:H75" totalsRowCount="1" headerRowDxfId="184" dataDxfId="183" totalsRowDxfId="182">
+  <autoFilter ref="B68:H74" xr:uid="{DEE2F87F-3551-4DE0-8BF1-90791BE9A6FB}"/>
+  <tableColumns count="7">
+    <tableColumn id="8" xr3:uid="{41546DFE-1DDF-40DB-89A2-0A850946FDF9}" name="C. No" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="9" xr3:uid="{D9805A40-FF2A-456B-BEFF-3DE682224242}" name="Course Name" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="15" xr3:uid="{F1FE5352-1709-4DB4-A6C7-7652CE05B31A}" name="Pre-Requisite" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="10" xr3:uid="{9BA5F390-1523-4AE6-986F-3CAB515A9136}" name="Course Code" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="11" xr3:uid="{3F3509AF-0737-406F-AB6E-D7EAA4991C20}" name="Credit Hours" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="12" xr3:uid="{358C9C4B-F156-4D27-BC56-09AD6B6C57CC}" name="Credit Hour Price" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="13" xr3:uid="{4BCE169B-CD06-4757-A27B-B9D3121D3017}" name="Course Price" totalsRowFunction="sum" dataDxfId="169" totalsRowDxfId="168">
+      <calculatedColumnFormula array="1">MMULT(F69,G69)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}" name="Table35" displayName="Table35" ref="B15:H22" totalsRowShown="0" dataDxfId="153">
-  <autoFilter ref="B15:H22" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{02190C55-16B9-496A-8C2B-E2D76168AF93}" name="S. No" dataDxfId="152"/>
-    <tableColumn id="2" xr3:uid="{8DDC9744-D783-4D5E-B711-CF5C3C040ABC}" name="Course Name" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{34FCA559-C89D-473C-8942-2292B887A2A4}" name="Midterm" dataDxfId="150"/>
-    <tableColumn id="11" xr3:uid="{26BFE13A-C341-4990-AFFA-A6ECAD09F356}" name="Pre-Final" dataDxfId="149"/>
-    <tableColumn id="12" xr3:uid="{BCC3D8B0-331D-4A91-B469-53D9E53C629B}" name="Final" dataDxfId="148"/>
-    <tableColumn id="3" xr3:uid="{AAF2F08F-0FFC-4D29-8E35-7A389C090684}" name="Bonus" dataDxfId="147"/>
-    <tableColumn id="5" xr3:uid="{6B12A4D2-2FF5-4394-9DE7-26EFEC40F165}" name="Project" dataDxfId="146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}" name="Table3" displayName="Table3" ref="B4:F11" totalsRowShown="0" dataDxfId="167">
+  <autoFilter ref="B4:F11" xr:uid="{7AFF9129-6ACC-422A-A110-9760E0DB5968}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{47BB9116-96B6-4659-B8C9-6763DFE5D1EB}" name="S. No" dataDxfId="166"/>
+    <tableColumn id="2" xr3:uid="{2B8CF846-525A-49A3-A6F6-814996D28C49}" name="Course Name" dataDxfId="165"/>
+    <tableColumn id="3" xr3:uid="{B231F6C5-4575-494A-8370-72E0D3EDCBDC}" name="Midterm" dataDxfId="164"/>
+    <tableColumn id="4" xr3:uid="{D6654B14-A53B-4F5A-9499-ECE1E8712304}" name="Pre-Final" dataDxfId="163"/>
+    <tableColumn id="5" xr3:uid="{EAE2A77F-EEAE-4EFE-9A61-3E4A9E141D71}" name="Final" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}" name="Table6" displayName="Table6" ref="B26:F33" totalsRowShown="0" dataDxfId="145">
-  <autoFilter ref="B26:F33" xr:uid="{96D8E5AD-210F-4754-8120-BE78EBD354EC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28F8E7D6-B383-4600-A048-22F8C4AD82D6}" name="S. No" dataDxfId="144"/>
-    <tableColumn id="2" xr3:uid="{98B567B0-0A0B-437E-A58C-5F6D5BF775AD}" name="Course Name" dataDxfId="143"/>
-    <tableColumn id="6" xr3:uid="{BE62E445-155B-4DCE-9238-BB400FE31908}" name="Midterm" dataDxfId="142"/>
-    <tableColumn id="7" xr3:uid="{C3F1662F-2159-423B-907C-383464F612E9}" name="Pre-Final" dataDxfId="141"/>
-    <tableColumn id="3" xr3:uid="{176A7C21-7E63-40F2-B1DC-6AF4F5AA9C6A}" name="Final" dataDxfId="140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}" name="Table35" displayName="Table35" ref="B15:H22" totalsRowShown="0" dataDxfId="161">
+  <autoFilter ref="B15:H22" xr:uid="{70147C35-1E51-4E8F-8D2F-0DC595D09A6B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{02190C55-16B9-496A-8C2B-E2D76168AF93}" name="S. No" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{8DDC9744-D783-4D5E-B711-CF5C3C040ABC}" name="Course Name" dataDxfId="159"/>
+    <tableColumn id="4" xr3:uid="{34FCA559-C89D-473C-8942-2292B887A2A4}" name="Midterm" dataDxfId="158"/>
+    <tableColumn id="11" xr3:uid="{26BFE13A-C341-4990-AFFA-A6ECAD09F356}" name="Pre-Final" dataDxfId="157"/>
+    <tableColumn id="12" xr3:uid="{BCC3D8B0-331D-4A91-B469-53D9E53C629B}" name="Final" dataDxfId="156"/>
+    <tableColumn id="3" xr3:uid="{AAF2F08F-0FFC-4D29-8E35-7A389C090684}" name="Bonus" dataDxfId="155"/>
+    <tableColumn id="5" xr3:uid="{6B12A4D2-2FF5-4394-9DE7-26EFEC40F165}" name="Project" dataDxfId="154"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2784,9 +2936,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CFA252-092A-4B93-AE8C-B7C35D64BCB8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="130" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -2807,14 +2959,14 @@
         <v>160</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="35">
         <f>SUBTOTAL(9,F:F)</f>
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E1" s="8">
         <v>132</v>
@@ -2840,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>2</v>
@@ -2929,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="E8" s="7">
         <v>4170101</v>
@@ -3038,7 +3190,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>2</v>
@@ -3241,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>2</v>
@@ -3440,7 +3592,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>2</v>
@@ -3621,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>2</v>
@@ -3791,7 +3943,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>2</v>
@@ -3964,11 +4116,191 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D65" s="8"/>
       <c r="H65" s="8">
         <f>SUBTOTAL(109,Table136823[Course Price])</f>
         <v>16560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="8">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7">
+        <v>40000061</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="8" cm="1">
+        <f t="array" ref="H69">MMULT(F69,G69)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="8">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="7">
+        <v>4170409</v>
+      </c>
+      <c r="F70" s="8">
+        <v>3</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="8" cm="1">
+        <f t="array" ref="H70">MMULT(F70,G70)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="8">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="7">
+        <v>4170401</v>
+      </c>
+      <c r="F71" s="8">
+        <v>3</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="8" cm="1">
+        <f t="array" ref="H71">MMULT(F71,G71)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="8">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="7">
+        <v>4170316</v>
+      </c>
+      <c r="F72" s="8">
+        <v>3</v>
+      </c>
+      <c r="G72" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="8" cm="1">
+        <f t="array" ref="H72">MMULT(F72,G72)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="8">
+        <v>5</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="7">
+        <v>4170210</v>
+      </c>
+      <c r="F73" s="8">
+        <v>3</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="8" cm="1">
+        <f t="array" ref="H73">MMULT(F73,G73)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B74" s="8">
+        <v>6</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="7">
+        <v>4170320</v>
+      </c>
+      <c r="F74" s="8">
+        <v>3</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="8" cm="1">
+        <f t="array" ref="H74">MMULT(F74,G74)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D75" s="8"/>
+      <c r="H75" s="8">
+        <f>SUBTOTAL(109,Table136831[Course Price])</f>
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
@@ -3980,16 +4312,18 @@
     <hyperlink ref="A36" location="Grades!B36" display="Grades" xr:uid="{FC155F72-54C0-4938-9AD3-FAF6EA92F340}"/>
     <hyperlink ref="A46" location="Grades!B46" display="Grades" xr:uid="{FC3E8CC9-90D6-4316-828D-9BDABDD9C319}"/>
     <hyperlink ref="A56" location="Grades!B56" display="Grades" xr:uid="{1D39CBA0-4DA2-4250-A411-C509FB080175}"/>
+    <hyperlink ref="A67" location="Grades!B67" display="Grades" xr:uid="{EE89FEBE-4EA8-41A9-80B6-80751E7549DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3997,10 +4331,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F5D615-ABF8-45A5-A4C3-80C40388C6BC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4024,11 +4358,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="E1" t="s">
         <v>158</v>
       </c>
@@ -4983,7 +5317,7 @@
       <c r="G59" s="8">
         <v>30</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H59" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5009,7 +5343,7 @@
       <c r="G60" s="8">
         <v>40</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="36" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5115,6 +5449,162 @@
       </c>
       <c r="H64" s="21" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" s="3">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="20">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8">
+        <v>10</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3.3687</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="20">
+        <v>2</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="20">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="20">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="20">
+        <v>5</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="20">
+        <v>6</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="8">
+        <v>15.33</v>
+      </c>
+      <c r="E74" s="8">
+        <v>20</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5147,30 +5637,37 @@
     <hyperlink ref="A59" r:id="rId17" location="Details!A88" xr:uid="{2ACE587D-E248-4554-BFA4-A1251140D191}"/>
     <hyperlink ref="A58" r:id="rId18" location="Details!A84" xr:uid="{23CF13E4-790C-47F6-85BF-DF46209AE1E9}"/>
     <hyperlink ref="A64" location="Details!A108" display="Details" xr:uid="{3ED4FD2E-7214-4DD5-A5C5-42196ADC4DC9}"/>
+    <hyperlink ref="A71" r:id="rId19" location="Details!A124" xr:uid="{735400E3-6676-4852-AD68-2F08DB5E9EB3}"/>
+    <hyperlink ref="A74" r:id="rId20" location="Details!A136" xr:uid="{95E6CE2C-C34F-4E8A-B088-8CEBA79A2F3C}"/>
+    <hyperlink ref="A72" r:id="rId21" location="Details!A128" xr:uid="{20F9092F-88CE-4372-8904-7647228B8315}"/>
+    <hyperlink ref="A73" r:id="rId22" location="Details!A132" xr:uid="{AA596E71-3FD0-4FC3-8270-4D2A2C114B08}"/>
+    <hyperlink ref="A70" r:id="rId23" location="Details!A120" xr:uid="{AC5AFA51-6E15-4EC2-8530-823D35EA4D3F}"/>
+    <hyperlink ref="A69" r:id="rId24" location="Details!A116" xr:uid="{67CA2FD1-B2E1-449D-8C5D-9E8B013BC53E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <ignoredErrors>
     <ignoredError sqref="D20" twoDigitTextYear="1"/>
     <ignoredError sqref="F48:F53" calculatedColumn="1"/>
   </ignoredErrors>
-  <tableParts count="6">
-    <tablePart r:id="rId20"/>
-    <tablePart r:id="rId21"/>
-    <tablePart r:id="rId22"/>
-    <tablePart r:id="rId23"/>
-    <tablePart r:id="rId24"/>
-    <tablePart r:id="rId25"/>
+  <tableParts count="7">
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView topLeftCell="A123" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5886,7 +6383,7 @@
         <v>42</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -5949,22 +6446,22 @@
         <v>159</v>
       </c>
       <c r="C93" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="F93" s="31" t="s">
         <v>177</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F93" s="31" t="s">
-        <v>178</v>
       </c>
       <c r="G93" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -6003,13 +6500,13 @@
         <v>42</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E97" s="31" t="s">
         <v>103</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -6042,7 +6539,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -6066,31 +6563,31 @@
         <v>156</v>
       </c>
       <c r="C105" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D105" s="31" t="s">
+      <c r="E105" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E105" s="31" t="s">
-        <v>167</v>
-      </c>
       <c r="F105" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H105" s="31" t="s">
         <v>39</v>
       </c>
       <c r="I105" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J105" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="J105" s="31" t="s">
+      <c r="K105" s="31" t="s">
         <v>172</v>
-      </c>
-      <c r="K105" s="31" t="s">
-        <v>173</v>
       </c>
       <c r="L105" s="31" t="s">
         <v>41</v>
@@ -6144,7 +6641,7 @@
         <v>42</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -6157,6 +6654,133 @@
       <c r="D110" s="25">
         <v>20</v>
       </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B117" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B118" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B125" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B126" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B129" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B130" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B133" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C133" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B134" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="25">
+        <v>5</v>
+      </c>
+      <c r="D134" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B137" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B138" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6180,11 +6804,16 @@
     <hyperlink ref="A100" location="Grades!C62" display="Scientific &amp; Technical Reporting" xr:uid="{86634F81-B10A-4770-9D3C-09BF0A942187}"/>
     <hyperlink ref="A104" location="Grades!C63" display="Information Systems Security" xr:uid="{977B66E6-3673-4920-9B68-C3DBA81FFB70}"/>
     <hyperlink ref="A108" location="Grades!C64" display="Cloud Software Development" xr:uid="{9478DC9C-886E-4FA9-81C6-9F8B9036589F}"/>
+    <hyperlink ref="A116" r:id="rId1" location="Grades!C69" xr:uid="{41304A8B-DB0D-403B-A5EE-9A67945BE8DC}"/>
+    <hyperlink ref="A120" location="Grades!C70" display="Project I" xr:uid="{2832C2F3-8889-4905-B814-708F675DCB31}"/>
+    <hyperlink ref="A124" location="Grades!C71" display="Computer Graphics" xr:uid="{89AFD7B7-F92E-4305-9CF8-B5F78AB6480B}"/>
+    <hyperlink ref="A128" location="Grades!C72" display="System Simulation and Modeling" xr:uid="{1A7CF686-4F82-4B82-899B-DA403FC894CC}"/>
+    <hyperlink ref="A132" location="Grades!C73" display="Software Analysis and Verification" xr:uid="{0AFFABA2-2E15-4033-8743-5CC08809C5F0}"/>
+    <hyperlink ref="A136" location="Grades!C74" display="Project Management" xr:uid="{3D2C0F12-D6A7-49F7-B43C-7D1828537CA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="17">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
@@ -6201,6 +6830,7 @@
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6234,23 +6864,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -6388,31 +7001,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7f8655ed-180d-4264-9692-e05dde76fbfd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6428,4 +7034,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5605A6A9-182D-4F0A-9D1C-D863DCBC7984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A6FEC1-2698-4553-9A8F-19E16FDA3C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73DDEB-6EFF-4531-86DA-ECFE81280AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="192">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -622,6 +622,21 @@
   </si>
   <si>
     <t>Maths Department</t>
+  </si>
+  <si>
+    <t>Oral</t>
+  </si>
+  <si>
+    <t>Oral Max</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Task Max</t>
+  </si>
+  <si>
+    <t>38?</t>
   </si>
 </sst>
 </file>
@@ -4333,8 +4348,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5501,7 +5516,9 @@
         <v>10</v>
       </c>
       <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="G69" s="8">
+        <v>30</v>
+      </c>
       <c r="H69" s="21" t="s">
         <v>25</v>
       </c>
@@ -5542,9 +5559,13 @@
         <v>180</v>
       </c>
       <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8">
+        <v>20</v>
+      </c>
       <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="8">
+        <v>40</v>
+      </c>
       <c r="H71" s="21" t="s">
         <v>62</v>
       </c>
@@ -5559,10 +5580,18 @@
       <c r="C72" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="8">
+        <v>19</v>
+      </c>
+      <c r="E72" s="8">
+        <v>20</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G72" s="8">
+        <v>40</v>
+      </c>
       <c r="H72" s="21" t="s">
         <v>62</v>
       </c>
@@ -5577,10 +5606,16 @@
       <c r="C73" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="D73" s="8">
+        <v>20</v>
+      </c>
+      <c r="E73" s="8">
+        <v>20</v>
+      </c>
       <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="G73" s="8">
+        <v>40</v>
+      </c>
       <c r="H73" s="21" t="s">
         <v>27</v>
       </c>
@@ -5601,8 +5636,12 @@
       <c r="E74" s="8">
         <v>20</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
+      <c r="F74" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="G74" s="8">
+        <v>40</v>
+      </c>
       <c r="H74" s="21" t="s">
         <v>25</v>
       </c>
@@ -5666,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView topLeftCell="A122" zoomScale="113" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6655,93 +6694,151 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B117" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C117" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F117" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B118" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C118" s="25">
+        <v>10</v>
+      </c>
+      <c r="D118" s="25">
+        <v>10</v>
+      </c>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B121" s="30" t="s">
         <v>183</v>
       </c>
       <c r="C121" s="31"/>
       <c r="D121" s="31"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B122" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B125" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E125" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F125" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G125" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="H125" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B126" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C126" s="25">
+        <v>10</v>
+      </c>
+      <c r="D126" s="25">
+        <v>10</v>
+      </c>
+      <c r="E126" s="25">
+        <v>5</v>
+      </c>
+      <c r="F126" s="25">
+        <v>5</v>
+      </c>
+      <c r="G126" s="25">
+        <v>5</v>
+      </c>
+      <c r="H126" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B129" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C129" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B130" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C130" s="25">
+        <v>14</v>
+      </c>
+      <c r="D130" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B133" s="30" t="s">
         <v>181</v>
       </c>
@@ -6752,7 +6849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
         <v>63</v>
       </c>
@@ -6763,24 +6860,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B137" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C137" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G137" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B138" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
+      <c r="C138" s="25">
+        <v>5</v>
+      </c>
+      <c r="D138" s="25">
+        <v>5</v>
+      </c>
+      <c r="E138" s="25">
+        <v>15</v>
+      </c>
+      <c r="F138" s="25">
+        <v>15</v>
+      </c>
+      <c r="G138" s="25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6864,6 +6987,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -7001,15 +7133,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7019,6 +7142,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7032,14 +7163,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA73DDEB-6EFF-4531-86DA-ECFE81280AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111389E0-8B20-47FC-8C4D-FE2FF192D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="196">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -637,6 +637,18 @@
   </si>
   <si>
     <t>38?</t>
+  </si>
+  <si>
+    <t>22.5?</t>
+  </si>
+  <si>
+    <t>2.5?</t>
+  </si>
+  <si>
+    <t>3.459?</t>
+  </si>
+  <si>
+    <t>3.3687?</t>
   </si>
 </sst>
 </file>
@@ -4348,8 +4360,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5496,8 +5508,8 @@
       <c r="J68" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="3">
-        <v>3.4590000000000001</v>
+      <c r="K68" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -5511,11 +5523,15 @@
       <c r="C69" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>193</v>
+      </c>
       <c r="E69" s="8">
         <v>10</v>
       </c>
-      <c r="F69" s="8"/>
+      <c r="F69" s="8" t="s">
+        <v>192</v>
+      </c>
       <c r="G69" s="8">
         <v>30</v>
       </c>
@@ -5525,8 +5541,8 @@
       <c r="J69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="3">
-        <v>3.3687</v>
+      <c r="K69" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -5612,7 +5628,9 @@
       <c r="E73" s="8">
         <v>20</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="8">
+        <v>40</v>
+      </c>
       <c r="G73" s="8">
         <v>40</v>
       </c>
@@ -5705,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="113" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView topLeftCell="A113" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6731,7 +6749,9 @@
       <c r="D118" s="25">
         <v>10</v>
       </c>
-      <c r="E118" s="25"/>
+      <c r="E118" s="25">
+        <v>10</v>
+      </c>
       <c r="F118" s="25">
         <v>10</v>
       </c>
@@ -6811,7 +6831,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B129" s="30" t="s">
         <v>182</v>
       </c>
@@ -6822,7 +6842,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130" s="32" t="s">
         <v>63</v>
       </c>
@@ -6833,12 +6853,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B133" s="30" t="s">
         <v>181</v>
       </c>
@@ -6848,8 +6868,20 @@
       <c r="D133" s="31" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E133" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B134" s="32" t="s">
         <v>63</v>
       </c>
@@ -6859,13 +6891,25 @@
       <c r="D134" s="25">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E134" s="8">
+        <v>5</v>
+      </c>
+      <c r="F134" s="8">
+        <v>5</v>
+      </c>
+      <c r="G134" s="8">
+        <v>10</v>
+      </c>
+      <c r="H134" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B137" s="30" t="s">
         <v>185</v>
       </c>
@@ -6885,7 +6929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B138" s="32" t="s">
         <v>63</v>
       </c>
@@ -6987,15 +7031,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -7133,6 +7168,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7142,14 +7186,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7163,6 +7199,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111389E0-8B20-47FC-8C4D-FE2FF192D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BFB7AC-115E-489B-9B65-E67061D0FE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="197">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>3.3687?</t>
+  </si>
+  <si>
+    <t>Assignment Max</t>
   </si>
 </sst>
 </file>
@@ -4360,8 +4363,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5723,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="113" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6841,6 +6844,12 @@
       <c r="D129" s="31" t="s">
         <v>173</v>
       </c>
+      <c r="E129" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F129" s="31" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130" s="32" t="s">
@@ -6852,6 +6861,12 @@
       <c r="D130" s="25">
         <v>15</v>
       </c>
+      <c r="E130" s="25">
+        <v>5</v>
+      </c>
+      <c r="F130" s="25">
+        <v>5</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
@@ -6868,16 +6883,16 @@
       <c r="D133" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F133" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G133" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="H133" s="8" t="s">
+      <c r="H133" s="31" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6891,16 +6906,16 @@
       <c r="D134" s="25">
         <v>5</v>
       </c>
-      <c r="E134" s="8">
+      <c r="E134" s="25">
         <v>5</v>
       </c>
-      <c r="F134" s="8">
+      <c r="F134" s="25">
         <v>5</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="25">
         <v>10</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H134" s="25">
         <v>10</v>
       </c>
     </row>
@@ -7031,6 +7046,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -7168,15 +7192,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7186,6 +7201,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7199,14 +7222,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BFB7AC-115E-489B-9B65-E67061D0FE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B653C566-614F-4230-BFC9-EDBB22BF1B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="195">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -637,12 +637,6 @@
   </si>
   <si>
     <t>38?</t>
-  </si>
-  <si>
-    <t>22.5?</t>
-  </si>
-  <si>
-    <t>2.5?</t>
   </si>
   <si>
     <t>3.459?</t>
@@ -4363,8 +4357,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5512,7 +5506,7 @@
         <v>28</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -5526,14 +5520,14 @@
       <c r="C69" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>193</v>
+      <c r="D69" s="8">
+        <v>8</v>
       </c>
       <c r="E69" s="8">
         <v>10</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>192</v>
+      <c r="F69" s="8">
+        <v>28</v>
       </c>
       <c r="G69" s="8">
         <v>30</v>
@@ -5545,7 +5539,7 @@
         <v>29</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -5726,8 +5720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView topLeftCell="A120" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6848,7 +6842,7 @@
         <v>134</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -7046,15 +7040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -7192,6 +7177,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7201,14 +7195,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7222,6 +7208,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B653C566-614F-4230-BFC9-EDBB22BF1B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D764007-3B71-43D9-8F81-DF6994043BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="194">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -634,9 +634,6 @@
   </si>
   <si>
     <t>Task Max</t>
-  </si>
-  <si>
-    <t>38?</t>
   </si>
   <si>
     <t>3.459?</t>
@@ -4358,7 +4355,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5506,7 +5503,7 @@
         <v>28</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -5539,7 +5536,7 @@
         <v>29</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -5571,11 +5568,15 @@
       <c r="C71" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="8">
+        <v>13</v>
+      </c>
       <c r="E71" s="8">
         <v>20</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="8">
+        <v>33</v>
+      </c>
       <c r="G71" s="8">
         <v>40</v>
       </c>
@@ -5599,8 +5600,8 @@
       <c r="E72" s="8">
         <v>20</v>
       </c>
-      <c r="F72" s="8" t="s">
-        <v>191</v>
+      <c r="F72" s="8">
+        <v>38</v>
       </c>
       <c r="G72" s="8">
         <v>40</v>
@@ -5720,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A9952D-2478-4AE3-A0CE-BBC1B333A118}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121:D122"/>
+    <sheetView topLeftCell="A117" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6842,7 +6843,7 @@
         <v>134</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -7040,6 +7041,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -7177,15 +7187,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7195,6 +7196,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7208,14 +7217,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/College Track.xlsx
+++ b/College Track.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\College Material\CollegeTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D764007-3B71-43D9-8F81-DF6994043BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA83CE7-EF42-4576-8E2E-48063EAA3880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1A41BE31-1ECF-4A76-AA25-4685734A5295}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="193">
   <si>
     <t>Fall 2022</t>
   </si>
@@ -636,13 +636,10 @@
     <t>Task Max</t>
   </si>
   <si>
-    <t>3.459?</t>
-  </si>
-  <si>
-    <t>3.3687?</t>
-  </si>
-  <si>
     <t>Assignment Max</t>
+  </si>
+  <si>
+    <t>C+</t>
   </si>
 </sst>
 </file>
@@ -4355,7 +4352,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5502,8 +5499,8 @@
       <c r="J68" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="3" t="s">
-        <v>191</v>
+      <c r="K68" s="3">
+        <v>3.2141000000000002</v>
       </c>
       <c r="L68" s="3"/>
     </row>
@@ -5530,13 +5527,13 @@
         <v>30</v>
       </c>
       <c r="H69" s="21" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K69" s="3" t="s">
-        <v>192</v>
+      <c r="K69" s="3">
+        <v>3.2692999999999999</v>
       </c>
       <c r="L69" s="3"/>
     </row>
@@ -5581,7 +5578,7 @@
         <v>40</v>
       </c>
       <c r="H71" s="21" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -5607,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="H72" s="21" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -5633,7 +5630,7 @@
         <v>40</v>
       </c>
       <c r="H73" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6843,7 +6840,7 @@
         <v>134</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -7041,15 +7038,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010092E66A5ACF97254992C4217EA7D0E10C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dcb323e5e4e43f885aeb6c0dde416cd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7f8655ed-180d-4264-9692-e05dde76fbfd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1c310f2f86a7d0f41ff809210cb3012" ns3:_="">
     <xsd:import namespace="7f8655ed-180d-4264-9692-e05dde76fbfd"/>
@@ -7187,6 +7175,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -7196,14 +7193,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0574A757-B1FB-47A7-8C3E-E2C657B98CE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7217,6 +7206,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CB02D06-66EA-4557-84AB-92B150E9C406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
